--- a/2018/Thao Phuong/01 QL DonVi-ChiNhanh/CIF1122_Xem chi tiet don vi.xlsx
+++ b/2018/Thao Phuong/01 QL DonVi-ChiNhanh/CIF1122_Xem chi tiet don vi.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Phuong\Analyze\Phương\Done\01 QL DonVi-ChiNhanh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SVN\THUCTAP\Thao Phuong\01 QL DonVi-ChiNhanh\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" tabRatio="836" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" tabRatio="836"/>
   </bookViews>
   <sheets>
     <sheet name="Update History" sheetId="4" r:id="rId1"/>
@@ -90,7 +90,7 @@
     <definedName name="項目No">#REF!</definedName>
     <definedName name="項目名">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -886,6 +886,7 @@
   <authors>
     <author>vinhphong</author>
     <author>Le Thi Thu Hien</author>
+    <author>Phan Thanh Hoàng Vũ</author>
   </authors>
   <commentList>
     <comment ref="D4" authorId="0" shapeId="0">
@@ -1001,6 +1002,54 @@
           </rPr>
           <t xml:space="preserve">
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G7" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Phan Thanh Hoàng Vũ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Tên store đặt sai quy tắc</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Phan Thanh Hoàng Vũ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Tên store đặt sai quy tắc</t>
         </r>
       </text>
     </comment>
@@ -2356,13 +2405,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="166" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2480,6 +2529,19 @@
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="14">
@@ -2740,7 +2802,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3032,6 +3094,9 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3057,9 +3122,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3132,15 +3194,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3152,8 +3205,14 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3163,6 +3222,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3174,6 +3236,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3206,15 +3277,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>142874</xdr:colOff>
+          <xdr:colOff>142875</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>65837</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>2117912</xdr:colOff>
+          <xdr:colOff>2114550</xdr:colOff>
           <xdr:row>53</xdr:row>
-          <xdr:rowOff>91510</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3222,6 +3293,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5142"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3242,23 +3316,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3286,7 +3347,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 1"/>
+        <xdr:cNvPr id="2" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3299,7 +3366,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="3" name="Group 2"/>
+          <xdr:cNvPr id="3" name="Group 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -3312,7 +3385,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="Rectangle 3"/>
+            <xdr:cNvPr id="6" name="Rectangle 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3406,7 +3485,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="Rectangle 6"/>
+            <xdr:cNvPr id="7" name="Rectangle 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3459,7 +3544,13 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+            <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="6" idx="3"/>
               <a:endCxn id="10" idx="1"/>
@@ -3494,7 +3585,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+            <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:endCxn id="7" idx="1"/>
             </xdr:cNvCxnSpPr>
@@ -3528,7 +3625,13 @@
         </xdr:cxnSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="Flowchart: Decision 9"/>
+            <xdr:cNvPr id="10" name="Flowchart: Decision 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3592,7 +3695,13 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+            <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="10" idx="3"/>
             </xdr:cNvCxnSpPr>
@@ -3626,7 +3735,13 @@
         </xdr:cxnSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="TextBox 11"/>
+            <xdr:cNvPr id="12" name="TextBox 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3674,7 +3789,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="13" name="TextBox 12"/>
+            <xdr:cNvPr id="13" name="TextBox 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3723,7 +3844,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Flowchart: Direct Access Storage 3"/>
+          <xdr:cNvPr id="4" name="Flowchart: Direct Access Storage 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3816,7 +3943,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="5" name="Elbow Connector 4"/>
+          <xdr:cNvPr id="5" name="Elbow Connector 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -3973,6 +4106,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4008,6 +4158,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4186,8 +4353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -4203,10 +4370,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="125"/>
+      <c r="B1" s="126"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -4233,8 +4400,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="125"/>
-      <c r="B2" s="125"/>
+      <c r="A2" s="126"/>
+      <c r="B2" s="126"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -4273,14 +4440,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="126" t="s">
+      <c r="E4" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
     </row>
     <row r="5" spans="1:10" ht="11.25">
       <c r="A5" s="40">
@@ -4295,14 +4462,14 @@
       <c r="D5" s="95" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="127" t="s">
+      <c r="E5" s="128" t="s">
         <v>135</v>
       </c>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="85">
@@ -4329,12 +4496,12 @@
       </c>
       <c r="C7" s="77"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="121"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="122"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="87">
@@ -4345,12 +4512,12 @@
       </c>
       <c r="C8" s="77"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="124"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="124"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="125"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="88">
@@ -4361,12 +4528,12 @@
       </c>
       <c r="C9" s="77"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="121"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="122"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="89">
@@ -4377,12 +4544,12 @@
       </c>
       <c r="C10" s="77"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="121"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="122"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="90">
@@ -4393,12 +4560,12 @@
       </c>
       <c r="C11" s="77"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="121"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="122"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="91">
@@ -4409,12 +4576,12 @@
       </c>
       <c r="C12" s="77"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="121"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="122"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="92">
@@ -4425,12 +4592,12 @@
       </c>
       <c r="C13" s="77"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="121"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="122"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="93">
@@ -4441,12 +4608,12 @@
       </c>
       <c r="C14" s="77"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="121"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="122"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -4457,12 +4624,12 @@
       </c>
       <c r="C15" s="77"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="128"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="128"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="119"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="85">
@@ -4473,12 +4640,12 @@
       </c>
       <c r="C16" s="77"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="128"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="128"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="119"/>
+      <c r="J16" s="119"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="86">
@@ -4489,12 +4656,12 @@
       </c>
       <c r="C17" s="77"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="128"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="119"/>
+      <c r="J17" s="119"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="87">
@@ -4505,12 +4672,12 @@
       </c>
       <c r="C18" s="77"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="128"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="128"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="119"/>
+      <c r="J18" s="119"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="88">
@@ -4521,12 +4688,12 @@
       </c>
       <c r="C19" s="77"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="128"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="119"/>
+      <c r="J19" s="119"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="89">
@@ -4537,12 +4704,12 @@
       </c>
       <c r="C20" s="77"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="128"/>
-      <c r="I20" s="128"/>
-      <c r="J20" s="128"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="119"/>
+      <c r="J20" s="119"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="90">
@@ -4553,12 +4720,12 @@
       </c>
       <c r="C21" s="77"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="128"/>
-      <c r="I21" s="128"/>
-      <c r="J21" s="128"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="119"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="91">
@@ -4569,12 +4736,12 @@
       </c>
       <c r="C22" s="77"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="128"/>
-      <c r="G22" s="128"/>
-      <c r="H22" s="128"/>
-      <c r="I22" s="128"/>
-      <c r="J22" s="128"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="92">
@@ -4585,12 +4752,12 @@
       </c>
       <c r="C23" s="77"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="128"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="128"/>
-      <c r="H23" s="128"/>
-      <c r="I23" s="128"/>
-      <c r="J23" s="128"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="119"/>
+      <c r="I23" s="119"/>
+      <c r="J23" s="119"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="93">
@@ -4601,12 +4768,12 @@
       </c>
       <c r="C24" s="77"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="128"/>
-      <c r="H24" s="128"/>
-      <c r="I24" s="128"/>
-      <c r="J24" s="128"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="119"/>
+      <c r="J24" s="119"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -4617,12 +4784,12 @@
       </c>
       <c r="C25" s="77"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="128"/>
-      <c r="G25" s="128"/>
-      <c r="H25" s="128"/>
-      <c r="I25" s="128"/>
-      <c r="J25" s="128"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="119"/>
+      <c r="I25" s="119"/>
+      <c r="J25" s="119"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -4633,12 +4800,12 @@
       </c>
       <c r="C26" s="77"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="128"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="119"/>
+      <c r="H26" s="119"/>
+      <c r="I26" s="119"/>
+      <c r="J26" s="119"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="85">
@@ -4649,12 +4816,12 @@
       </c>
       <c r="C27" s="77"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="128"/>
-      <c r="G27" s="128"/>
-      <c r="H27" s="128"/>
-      <c r="I27" s="128"/>
-      <c r="J27" s="128"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="119"/>
+      <c r="G27" s="119"/>
+      <c r="H27" s="119"/>
+      <c r="I27" s="119"/>
+      <c r="J27" s="119"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="86">
@@ -4665,12 +4832,12 @@
       </c>
       <c r="C28" s="77"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="128"/>
-      <c r="G28" s="128"/>
-      <c r="H28" s="128"/>
-      <c r="I28" s="128"/>
-      <c r="J28" s="128"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="119"/>
+      <c r="I28" s="119"/>
+      <c r="J28" s="119"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="87">
@@ -4681,12 +4848,12 @@
       </c>
       <c r="C29" s="77"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="128"/>
-      <c r="G29" s="128"/>
-      <c r="H29" s="128"/>
-      <c r="I29" s="128"/>
-      <c r="J29" s="128"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="119"/>
+      <c r="H29" s="119"/>
+      <c r="I29" s="119"/>
+      <c r="J29" s="119"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="88">
@@ -4697,12 +4864,12 @@
       </c>
       <c r="C30" s="77"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="128"/>
-      <c r="F30" s="128"/>
-      <c r="G30" s="128"/>
-      <c r="H30" s="128"/>
-      <c r="I30" s="128"/>
-      <c r="J30" s="128"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="119"/>
+      <c r="H30" s="119"/>
+      <c r="I30" s="119"/>
+      <c r="J30" s="119"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="89">
@@ -4713,12 +4880,12 @@
       </c>
       <c r="C31" s="77"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="128"/>
-      <c r="F31" s="128"/>
-      <c r="G31" s="128"/>
-      <c r="H31" s="128"/>
-      <c r="I31" s="128"/>
-      <c r="J31" s="128"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="119"/>
+      <c r="G31" s="119"/>
+      <c r="H31" s="119"/>
+      <c r="I31" s="119"/>
+      <c r="J31" s="119"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="90">
@@ -4729,12 +4896,12 @@
       </c>
       <c r="C32" s="77"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="128"/>
-      <c r="F32" s="128"/>
-      <c r="G32" s="128"/>
-      <c r="H32" s="128"/>
-      <c r="I32" s="128"/>
-      <c r="J32" s="128"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="119"/>
+      <c r="H32" s="119"/>
+      <c r="I32" s="119"/>
+      <c r="J32" s="119"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="91">
@@ -4745,12 +4912,12 @@
       </c>
       <c r="C33" s="77"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="128"/>
-      <c r="F33" s="128"/>
-      <c r="G33" s="128"/>
-      <c r="H33" s="128"/>
-      <c r="I33" s="128"/>
-      <c r="J33" s="128"/>
+      <c r="E33" s="119"/>
+      <c r="F33" s="119"/>
+      <c r="G33" s="119"/>
+      <c r="H33" s="119"/>
+      <c r="I33" s="119"/>
+      <c r="J33" s="119"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="92">
@@ -4761,12 +4928,12 @@
       </c>
       <c r="C34" s="77"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="128"/>
-      <c r="F34" s="128"/>
-      <c r="G34" s="128"/>
-      <c r="H34" s="128"/>
-      <c r="I34" s="128"/>
-      <c r="J34" s="128"/>
+      <c r="E34" s="119"/>
+      <c r="F34" s="119"/>
+      <c r="G34" s="119"/>
+      <c r="H34" s="119"/>
+      <c r="I34" s="119"/>
+      <c r="J34" s="119"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="93">
@@ -4777,12 +4944,12 @@
       </c>
       <c r="C35" s="77"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="128"/>
-      <c r="F35" s="128"/>
-      <c r="G35" s="128"/>
-      <c r="H35" s="128"/>
-      <c r="I35" s="128"/>
-      <c r="J35" s="128"/>
+      <c r="E35" s="119"/>
+      <c r="F35" s="119"/>
+      <c r="G35" s="119"/>
+      <c r="H35" s="119"/>
+      <c r="I35" s="119"/>
+      <c r="J35" s="119"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -4793,12 +4960,12 @@
       </c>
       <c r="C36" s="77"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="128"/>
-      <c r="G36" s="128"/>
-      <c r="H36" s="128"/>
-      <c r="I36" s="128"/>
-      <c r="J36" s="128"/>
+      <c r="E36" s="119"/>
+      <c r="F36" s="119"/>
+      <c r="G36" s="119"/>
+      <c r="H36" s="119"/>
+      <c r="I36" s="119"/>
+      <c r="J36" s="119"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="85">
@@ -4809,12 +4976,12 @@
       </c>
       <c r="C37" s="77"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="128"/>
-      <c r="F37" s="128"/>
-      <c r="G37" s="128"/>
-      <c r="H37" s="128"/>
-      <c r="I37" s="128"/>
-      <c r="J37" s="128"/>
+      <c r="E37" s="119"/>
+      <c r="F37" s="119"/>
+      <c r="G37" s="119"/>
+      <c r="H37" s="119"/>
+      <c r="I37" s="119"/>
+      <c r="J37" s="119"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="86">
@@ -4825,12 +4992,12 @@
       </c>
       <c r="C38" s="77"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="128"/>
-      <c r="F38" s="128"/>
-      <c r="G38" s="128"/>
-      <c r="H38" s="128"/>
-      <c r="I38" s="128"/>
-      <c r="J38" s="128"/>
+      <c r="E38" s="119"/>
+      <c r="F38" s="119"/>
+      <c r="G38" s="119"/>
+      <c r="H38" s="119"/>
+      <c r="I38" s="119"/>
+      <c r="J38" s="119"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="87">
@@ -4841,12 +5008,12 @@
       </c>
       <c r="C39" s="77"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="128"/>
-      <c r="F39" s="128"/>
-      <c r="G39" s="128"/>
-      <c r="H39" s="128"/>
-      <c r="I39" s="128"/>
-      <c r="J39" s="128"/>
+      <c r="E39" s="119"/>
+      <c r="F39" s="119"/>
+      <c r="G39" s="119"/>
+      <c r="H39" s="119"/>
+      <c r="I39" s="119"/>
+      <c r="J39" s="119"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="88">
@@ -4857,12 +5024,12 @@
       </c>
       <c r="C40" s="77"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="128"/>
-      <c r="F40" s="128"/>
-      <c r="G40" s="128"/>
-      <c r="H40" s="128"/>
-      <c r="I40" s="128"/>
-      <c r="J40" s="128"/>
+      <c r="E40" s="119"/>
+      <c r="F40" s="119"/>
+      <c r="G40" s="119"/>
+      <c r="H40" s="119"/>
+      <c r="I40" s="119"/>
+      <c r="J40" s="119"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="89">
@@ -4873,12 +5040,12 @@
       </c>
       <c r="C41" s="77"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="128"/>
-      <c r="F41" s="128"/>
-      <c r="G41" s="128"/>
-      <c r="H41" s="128"/>
-      <c r="I41" s="128"/>
-      <c r="J41" s="128"/>
+      <c r="E41" s="119"/>
+      <c r="F41" s="119"/>
+      <c r="G41" s="119"/>
+      <c r="H41" s="119"/>
+      <c r="I41" s="119"/>
+      <c r="J41" s="119"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="90">
@@ -4889,32 +5056,23 @@
       </c>
       <c r="C42" s="77"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="128"/>
-      <c r="F42" s="128"/>
-      <c r="G42" s="128"/>
-      <c r="H42" s="128"/>
-      <c r="I42" s="128"/>
-      <c r="J42" s="128"/>
+      <c r="E42" s="119"/>
+      <c r="F42" s="119"/>
+      <c r="G42" s="119"/>
+      <c r="H42" s="119"/>
+      <c r="I42" s="119"/>
+      <c r="J42" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -4930,14 +5088,23 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -4962,8 +5129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:J43"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A8" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -4981,10 +5148,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="125"/>
+      <c r="B1" s="126"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5015,8 +5182,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="125"/>
-      <c r="B2" s="125"/>
+      <c r="A2" s="126"/>
+      <c r="B2" s="126"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5589,7 +5756,7 @@
   <dimension ref="A1:O58"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="G38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
@@ -5616,12 +5783,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
       <c r="E1" s="30" t="s">
         <v>1</v>
       </c>
@@ -5654,10 +5821,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="125"/>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
+      <c r="A2" s="126"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
       <c r="E2" s="30" t="s">
         <v>2</v>
       </c>
@@ -8581,7 +8748,7 @@
   <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:G11"/>
+      <selection activeCell="F23" sqref="F23:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -8605,7 +8772,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="109"/>
@@ -8641,7 +8808,7 @@
       <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="158"/>
+      <c r="A2" s="155"/>
       <c r="B2" s="110"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
@@ -8690,15 +8857,15 @@
       <c r="E4" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="125" t="s">
+      <c r="F4" s="126" t="s">
         <v>129</v>
       </c>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125" t="s">
+      <c r="G4" s="126"/>
+      <c r="H4" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
     </row>
     <row r="5" spans="1:12" s="34" customFormat="1" ht="28.5" customHeight="1">
       <c r="A5" s="33">
@@ -8714,15 +8881,15 @@
       <c r="E5" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="F5" s="155" t="s">
+      <c r="F5" s="152" t="s">
         <v>287</v>
       </c>
-      <c r="G5" s="156"/>
-      <c r="H5" s="152" t="s">
+      <c r="G5" s="153"/>
+      <c r="H5" s="156" t="s">
         <v>256</v>
       </c>
-      <c r="I5" s="153"/>
-      <c r="J5" s="154"/>
+      <c r="I5" s="157"/>
+      <c r="J5" s="158"/>
     </row>
     <row r="6" spans="1:12" s="34" customFormat="1" ht="37.5" customHeight="1">
       <c r="A6" s="33">
@@ -8738,15 +8905,15 @@
       <c r="E6" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="F6" s="155" t="s">
+      <c r="F6" s="152" t="s">
         <v>255</v>
       </c>
-      <c r="G6" s="156"/>
-      <c r="H6" s="152" t="s">
+      <c r="G6" s="153"/>
+      <c r="H6" s="156" t="s">
         <v>253</v>
       </c>
-      <c r="I6" s="153"/>
-      <c r="J6" s="154"/>
+      <c r="I6" s="157"/>
+      <c r="J6" s="158"/>
     </row>
     <row r="7" spans="1:12" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -8756,11 +8923,11 @@
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="32"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="156"/>
-      <c r="H7" s="152"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="156"/>
+      <c r="I7" s="157"/>
+      <c r="J7" s="158"/>
     </row>
     <row r="8" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -8770,11 +8937,11 @@
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="32"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="156"/>
-      <c r="H8" s="152"/>
-      <c r="I8" s="153"/>
-      <c r="J8" s="154"/>
+      <c r="F8" s="152"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="156"/>
+      <c r="I8" s="157"/>
+      <c r="J8" s="158"/>
     </row>
     <row r="9" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -8784,11 +8951,11 @@
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="32"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="156"/>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="154"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
+      <c r="J9" s="158"/>
     </row>
     <row r="10" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -8798,11 +8965,11 @@
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="32"/>
-      <c r="F10" s="155"/>
-      <c r="G10" s="156"/>
-      <c r="H10" s="152"/>
-      <c r="I10" s="153"/>
-      <c r="J10" s="154"/>
+      <c r="F10" s="152"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="157"/>
+      <c r="J10" s="158"/>
     </row>
     <row r="11" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -8812,11 +8979,11 @@
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="155"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="152"/>
-      <c r="I11" s="153"/>
-      <c r="J11" s="154"/>
+      <c r="F11" s="152"/>
+      <c r="G11" s="153"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="157"/>
+      <c r="J11" s="158"/>
     </row>
     <row r="12" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -8826,11 +8993,11 @@
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="156"/>
-      <c r="H12" s="152"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="154"/>
+      <c r="F12" s="152"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="157"/>
+      <c r="J12" s="158"/>
     </row>
     <row r="13" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -8840,11 +9007,11 @@
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="155"/>
-      <c r="G13" s="156"/>
-      <c r="H13" s="152"/>
-      <c r="I13" s="153"/>
-      <c r="J13" s="154"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="153"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="157"/>
+      <c r="J13" s="158"/>
     </row>
     <row r="14" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -8854,11 +9021,11 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="155"/>
-      <c r="G14" s="156"/>
-      <c r="H14" s="152"/>
-      <c r="I14" s="153"/>
-      <c r="J14" s="154"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="156"/>
+      <c r="I14" s="157"/>
+      <c r="J14" s="158"/>
     </row>
     <row r="15" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -8868,11 +9035,11 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="155"/>
-      <c r="G15" s="156"/>
-      <c r="H15" s="152"/>
-      <c r="I15" s="153"/>
-      <c r="J15" s="154"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="153"/>
+      <c r="H15" s="156"/>
+      <c r="I15" s="157"/>
+      <c r="J15" s="158"/>
     </row>
     <row r="16" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -8882,11 +9049,11 @@
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="156"/>
-      <c r="H16" s="152"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="154"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="156"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="158"/>
     </row>
     <row r="17" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -8896,11 +9063,11 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="155"/>
-      <c r="G17" s="156"/>
-      <c r="H17" s="152"/>
-      <c r="I17" s="153"/>
-      <c r="J17" s="154"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="156"/>
+      <c r="I17" s="157"/>
+      <c r="J17" s="158"/>
     </row>
     <row r="18" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -8910,11 +9077,11 @@
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="32"/>
-      <c r="F18" s="155"/>
-      <c r="G18" s="156"/>
-      <c r="H18" s="152"/>
-      <c r="I18" s="153"/>
-      <c r="J18" s="154"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="156"/>
+      <c r="I18" s="157"/>
+      <c r="J18" s="158"/>
     </row>
     <row r="19" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -8924,11 +9091,11 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="32"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="156"/>
-      <c r="H19" s="152"/>
-      <c r="I19" s="153"/>
-      <c r="J19" s="154"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="156"/>
+      <c r="I19" s="157"/>
+      <c r="J19" s="158"/>
     </row>
     <row r="20" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -8938,11 +9105,11 @@
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="155"/>
-      <c r="G20" s="156"/>
-      <c r="H20" s="152"/>
-      <c r="I20" s="153"/>
-      <c r="J20" s="154"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="153"/>
+      <c r="H20" s="156"/>
+      <c r="I20" s="157"/>
+      <c r="J20" s="158"/>
     </row>
     <row r="21" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -8952,11 +9119,11 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="156"/>
-      <c r="H21" s="152"/>
-      <c r="I21" s="153"/>
-      <c r="J21" s="154"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="153"/>
+      <c r="H21" s="156"/>
+      <c r="I21" s="157"/>
+      <c r="J21" s="158"/>
     </row>
     <row r="22" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -8966,11 +9133,11 @@
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="32"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="157"/>
+      <c r="J22" s="158"/>
     </row>
     <row r="23" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -8980,11 +9147,11 @@
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="32"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="121"/>
-      <c r="H23" s="152"/>
-      <c r="I23" s="153"/>
-      <c r="J23" s="154"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="156"/>
+      <c r="I23" s="157"/>
+      <c r="J23" s="158"/>
     </row>
     <row r="24" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -8994,11 +9161,11 @@
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="32"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="152"/>
-      <c r="I24" s="153"/>
-      <c r="J24" s="154"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="156"/>
+      <c r="I24" s="157"/>
+      <c r="J24" s="158"/>
     </row>
     <row r="25" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -9008,11 +9175,11 @@
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="32"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="152"/>
-      <c r="I25" s="153"/>
-      <c r="J25" s="154"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="156"/>
+      <c r="I25" s="157"/>
+      <c r="J25" s="158"/>
     </row>
     <row r="26" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -9022,11 +9189,11 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="32"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="152"/>
-      <c r="I26" s="153"/>
-      <c r="J26" s="154"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="156"/>
+      <c r="I26" s="157"/>
+      <c r="J26" s="158"/>
     </row>
     <row r="27" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -9036,11 +9203,11 @@
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="32"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="121"/>
-      <c r="H27" s="152"/>
-      <c r="I27" s="153"/>
-      <c r="J27" s="154"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="156"/>
+      <c r="I27" s="157"/>
+      <c r="J27" s="158"/>
     </row>
     <row r="28" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -9050,11 +9217,11 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="32"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="121"/>
-      <c r="H28" s="152"/>
-      <c r="I28" s="153"/>
-      <c r="J28" s="154"/>
+      <c r="F28" s="120"/>
+      <c r="G28" s="122"/>
+      <c r="H28" s="156"/>
+      <c r="I28" s="157"/>
+      <c r="J28" s="158"/>
     </row>
     <row r="29" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -9064,11 +9231,11 @@
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="32"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="121"/>
-      <c r="H29" s="152"/>
-      <c r="I29" s="153"/>
-      <c r="J29" s="154"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="156"/>
+      <c r="I29" s="157"/>
+      <c r="J29" s="158"/>
     </row>
     <row r="30" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -9078,11 +9245,11 @@
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="32"/>
-      <c r="F30" s="119"/>
-      <c r="G30" s="121"/>
-      <c r="H30" s="152"/>
-      <c r="I30" s="153"/>
-      <c r="J30" s="154"/>
+      <c r="F30" s="120"/>
+      <c r="G30" s="122"/>
+      <c r="H30" s="156"/>
+      <c r="I30" s="157"/>
+      <c r="J30" s="158"/>
     </row>
     <row r="31" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -9092,11 +9259,11 @@
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="32"/>
-      <c r="F31" s="119"/>
-      <c r="G31" s="121"/>
-      <c r="H31" s="152"/>
-      <c r="I31" s="153"/>
-      <c r="J31" s="154"/>
+      <c r="F31" s="120"/>
+      <c r="G31" s="122"/>
+      <c r="H31" s="156"/>
+      <c r="I31" s="157"/>
+      <c r="J31" s="158"/>
     </row>
     <row r="32" spans="1:18" ht="11.25">
       <c r="A32" s="33">
@@ -9106,11 +9273,11 @@
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="32"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="121"/>
-      <c r="H32" s="152"/>
-      <c r="I32" s="153"/>
-      <c r="J32" s="154"/>
+      <c r="F32" s="120"/>
+      <c r="G32" s="122"/>
+      <c r="H32" s="156"/>
+      <c r="I32" s="157"/>
+      <c r="J32" s="158"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
@@ -9127,11 +9294,11 @@
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="32"/>
-      <c r="F33" s="119"/>
-      <c r="G33" s="121"/>
-      <c r="H33" s="152"/>
-      <c r="I33" s="153"/>
-      <c r="J33" s="154"/>
+      <c r="F33" s="120"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="156"/>
+      <c r="I33" s="157"/>
+      <c r="J33" s="158"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
@@ -9148,11 +9315,11 @@
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="32"/>
-      <c r="F34" s="119"/>
-      <c r="G34" s="121"/>
-      <c r="H34" s="152"/>
-      <c r="I34" s="153"/>
-      <c r="J34" s="154"/>
+      <c r="F34" s="120"/>
+      <c r="G34" s="122"/>
+      <c r="H34" s="156"/>
+      <c r="I34" s="157"/>
+      <c r="J34" s="158"/>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
@@ -9169,11 +9336,11 @@
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="32"/>
-      <c r="F35" s="119"/>
-      <c r="G35" s="121"/>
-      <c r="H35" s="152"/>
-      <c r="I35" s="153"/>
-      <c r="J35" s="154"/>
+      <c r="F35" s="120"/>
+      <c r="G35" s="122"/>
+      <c r="H35" s="156"/>
+      <c r="I35" s="157"/>
+      <c r="J35" s="158"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
@@ -9190,11 +9357,11 @@
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="32"/>
-      <c r="F36" s="119"/>
-      <c r="G36" s="121"/>
-      <c r="H36" s="152"/>
-      <c r="I36" s="153"/>
-      <c r="J36" s="154"/>
+      <c r="F36" s="120"/>
+      <c r="G36" s="122"/>
+      <c r="H36" s="156"/>
+      <c r="I36" s="157"/>
+      <c r="J36" s="158"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -9211,11 +9378,11 @@
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
       <c r="E37" s="32"/>
-      <c r="F37" s="119"/>
-      <c r="G37" s="121"/>
-      <c r="H37" s="152"/>
-      <c r="I37" s="153"/>
-      <c r="J37" s="154"/>
+      <c r="F37" s="120"/>
+      <c r="G37" s="122"/>
+      <c r="H37" s="156"/>
+      <c r="I37" s="157"/>
+      <c r="J37" s="158"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
@@ -9232,11 +9399,11 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="32"/>
-      <c r="F38" s="119"/>
-      <c r="G38" s="121"/>
-      <c r="H38" s="152"/>
-      <c r="I38" s="153"/>
-      <c r="J38" s="154"/>
+      <c r="F38" s="120"/>
+      <c r="G38" s="122"/>
+      <c r="H38" s="156"/>
+      <c r="I38" s="157"/>
+      <c r="J38" s="158"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
@@ -9253,11 +9420,11 @@
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="32"/>
-      <c r="F39" s="119"/>
-      <c r="G39" s="121"/>
-      <c r="H39" s="152"/>
-      <c r="I39" s="153"/>
-      <c r="J39" s="154"/>
+      <c r="F39" s="120"/>
+      <c r="G39" s="122"/>
+      <c r="H39" s="156"/>
+      <c r="I39" s="157"/>
+      <c r="J39" s="158"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
@@ -9274,11 +9441,11 @@
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
       <c r="E40" s="32"/>
-      <c r="F40" s="119"/>
-      <c r="G40" s="121"/>
-      <c r="H40" s="152"/>
-      <c r="I40" s="153"/>
-      <c r="J40" s="154"/>
+      <c r="F40" s="120"/>
+      <c r="G40" s="122"/>
+      <c r="H40" s="156"/>
+      <c r="I40" s="157"/>
+      <c r="J40" s="158"/>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
@@ -9295,11 +9462,11 @@
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
       <c r="E41" s="32"/>
-      <c r="F41" s="119"/>
-      <c r="G41" s="121"/>
-      <c r="H41" s="152"/>
-      <c r="I41" s="153"/>
-      <c r="J41" s="154"/>
+      <c r="F41" s="120"/>
+      <c r="G41" s="122"/>
+      <c r="H41" s="156"/>
+      <c r="I41" s="157"/>
+      <c r="J41" s="158"/>
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
@@ -9316,11 +9483,11 @@
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="32"/>
-      <c r="F42" s="119"/>
-      <c r="G42" s="121"/>
-      <c r="H42" s="152"/>
-      <c r="I42" s="153"/>
-      <c r="J42" s="154"/>
+      <c r="F42" s="120"/>
+      <c r="G42" s="122"/>
+      <c r="H42" s="156"/>
+      <c r="I42" s="157"/>
+      <c r="J42" s="158"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
@@ -9337,11 +9504,11 @@
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="32"/>
-      <c r="F43" s="119"/>
-      <c r="G43" s="121"/>
-      <c r="H43" s="152"/>
-      <c r="I43" s="153"/>
-      <c r="J43" s="154"/>
+      <c r="F43" s="120"/>
+      <c r="G43" s="122"/>
+      <c r="H43" s="156"/>
+      <c r="I43" s="157"/>
+      <c r="J43" s="158"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
@@ -9358,11 +9525,11 @@
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="32"/>
-      <c r="F44" s="119"/>
-      <c r="G44" s="121"/>
-      <c r="H44" s="152"/>
-      <c r="I44" s="153"/>
-      <c r="J44" s="154"/>
+      <c r="F44" s="120"/>
+      <c r="G44" s="122"/>
+      <c r="H44" s="156"/>
+      <c r="I44" s="157"/>
+      <c r="J44" s="158"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
@@ -9379,11 +9546,11 @@
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
       <c r="E45" s="32"/>
-      <c r="F45" s="119"/>
-      <c r="G45" s="121"/>
-      <c r="H45" s="152"/>
-      <c r="I45" s="153"/>
-      <c r="J45" s="154"/>
+      <c r="F45" s="120"/>
+      <c r="G45" s="122"/>
+      <c r="H45" s="156"/>
+      <c r="I45" s="157"/>
+      <c r="J45" s="158"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
@@ -9400,11 +9567,11 @@
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
       <c r="E46" s="32"/>
-      <c r="F46" s="119"/>
-      <c r="G46" s="121"/>
-      <c r="H46" s="152"/>
-      <c r="I46" s="153"/>
-      <c r="J46" s="154"/>
+      <c r="F46" s="120"/>
+      <c r="G46" s="122"/>
+      <c r="H46" s="156"/>
+      <c r="I46" s="157"/>
+      <c r="J46" s="158"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
@@ -9421,11 +9588,11 @@
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="32"/>
-      <c r="F47" s="119"/>
-      <c r="G47" s="121"/>
-      <c r="H47" s="152"/>
-      <c r="I47" s="153"/>
-      <c r="J47" s="154"/>
+      <c r="F47" s="120"/>
+      <c r="G47" s="122"/>
+      <c r="H47" s="156"/>
+      <c r="I47" s="157"/>
+      <c r="J47" s="158"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
@@ -9442,11 +9609,11 @@
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
       <c r="E48" s="32"/>
-      <c r="F48" s="119"/>
-      <c r="G48" s="121"/>
-      <c r="H48" s="152"/>
-      <c r="I48" s="153"/>
-      <c r="J48" s="154"/>
+      <c r="F48" s="120"/>
+      <c r="G48" s="122"/>
+      <c r="H48" s="156"/>
+      <c r="I48" s="157"/>
+      <c r="J48" s="158"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
@@ -9463,11 +9630,11 @@
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="32"/>
-      <c r="F49" s="119"/>
-      <c r="G49" s="121"/>
-      <c r="H49" s="152"/>
-      <c r="I49" s="153"/>
-      <c r="J49" s="154"/>
+      <c r="F49" s="120"/>
+      <c r="G49" s="122"/>
+      <c r="H49" s="156"/>
+      <c r="I49" s="157"/>
+      <c r="J49" s="158"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
@@ -9484,11 +9651,11 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="32"/>
-      <c r="F50" s="119"/>
-      <c r="G50" s="121"/>
-      <c r="H50" s="152"/>
-      <c r="I50" s="153"/>
-      <c r="J50" s="154"/>
+      <c r="F50" s="120"/>
+      <c r="G50" s="122"/>
+      <c r="H50" s="156"/>
+      <c r="I50" s="157"/>
+      <c r="J50" s="158"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
@@ -9505,11 +9672,11 @@
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
       <c r="E51" s="32"/>
-      <c r="F51" s="119"/>
-      <c r="G51" s="121"/>
-      <c r="H51" s="152"/>
-      <c r="I51" s="153"/>
-      <c r="J51" s="154"/>
+      <c r="F51" s="120"/>
+      <c r="G51" s="122"/>
+      <c r="H51" s="156"/>
+      <c r="I51" s="157"/>
+      <c r="J51" s="158"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
@@ -9526,11 +9693,11 @@
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
       <c r="E52" s="32"/>
-      <c r="F52" s="119"/>
-      <c r="G52" s="121"/>
-      <c r="H52" s="152"/>
-      <c r="I52" s="153"/>
-      <c r="J52" s="154"/>
+      <c r="F52" s="120"/>
+      <c r="G52" s="122"/>
+      <c r="H52" s="156"/>
+      <c r="I52" s="157"/>
+      <c r="J52" s="158"/>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
@@ -9547,11 +9714,11 @@
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="32"/>
-      <c r="F53" s="119"/>
-      <c r="G53" s="121"/>
-      <c r="H53" s="152"/>
-      <c r="I53" s="153"/>
-      <c r="J53" s="154"/>
+      <c r="F53" s="120"/>
+      <c r="G53" s="122"/>
+      <c r="H53" s="156"/>
+      <c r="I53" s="157"/>
+      <c r="J53" s="158"/>
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
@@ -9568,11 +9735,11 @@
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
       <c r="E54" s="32"/>
-      <c r="F54" s="119"/>
-      <c r="G54" s="121"/>
-      <c r="H54" s="152"/>
-      <c r="I54" s="153"/>
-      <c r="J54" s="154"/>
+      <c r="F54" s="120"/>
+      <c r="G54" s="122"/>
+      <c r="H54" s="156"/>
+      <c r="I54" s="157"/>
+      <c r="J54" s="158"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
@@ -9589,11 +9756,11 @@
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
       <c r="E55" s="32"/>
-      <c r="F55" s="119"/>
-      <c r="G55" s="121"/>
-      <c r="H55" s="152"/>
-      <c r="I55" s="153"/>
-      <c r="J55" s="154"/>
+      <c r="F55" s="120"/>
+      <c r="G55" s="122"/>
+      <c r="H55" s="156"/>
+      <c r="I55" s="157"/>
+      <c r="J55" s="158"/>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
@@ -9610,11 +9777,11 @@
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
       <c r="E56" s="32"/>
-      <c r="F56" s="119"/>
-      <c r="G56" s="121"/>
-      <c r="H56" s="152"/>
-      <c r="I56" s="153"/>
-      <c r="J56" s="154"/>
+      <c r="F56" s="120"/>
+      <c r="G56" s="122"/>
+      <c r="H56" s="156"/>
+      <c r="I56" s="157"/>
+      <c r="J56" s="158"/>
       <c r="L56" s="22"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
@@ -9626,25 +9793,80 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F18:G18"/>
@@ -9659,80 +9881,25 @@
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="H19:J19"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E56">
@@ -9750,8 +9917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1048467"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B8"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -9774,20 +9941,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
       <c r="E1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="159" t="str">
+      <c r="F1" s="162" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="159"/>
+      <c r="G1" s="162"/>
       <c r="H1" s="26" t="s">
         <v>3</v>
       </c>
@@ -9815,18 +9982,18 @@
       <c r="Q1" s="52"/>
     </row>
     <row r="2" spans="1:17" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="125"/>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
+      <c r="A2" s="126"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
       <c r="E2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="159" t="str">
+      <c r="F2" s="162" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CI</v>
       </c>
-      <c r="G2" s="159"/>
+      <c r="G2" s="162"/>
       <c r="H2" s="26" t="s">
         <v>49</v>
       </c>
@@ -9913,12 +10080,12 @@
       <c r="F5" s="116" t="s">
         <v>259</v>
       </c>
-      <c r="G5" s="122" t="s">
+      <c r="G5" s="123" t="s">
         <v>268</v>
       </c>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="124"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="125"/>
       <c r="K5" s="113" t="s">
         <v>252</v>
       </c>
@@ -9956,12 +10123,12 @@
       <c r="F6" s="116" t="s">
         <v>260</v>
       </c>
-      <c r="G6" s="122" t="s">
+      <c r="G6" s="123" t="s">
         <v>286</v>
       </c>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="125"/>
       <c r="K6" s="113" t="s">
         <v>252</v>
       </c>
@@ -9999,12 +10166,12 @@
       <c r="F7" s="116" t="s">
         <v>261</v>
       </c>
-      <c r="G7" s="122" t="s">
+      <c r="G7" s="167" t="s">
         <v>270</v>
       </c>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="124"/>
+      <c r="H7" s="168"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="169"/>
       <c r="K7" s="113"/>
       <c r="L7" s="113"/>
       <c r="M7" s="74" t="s">
@@ -10038,12 +10205,12 @@
       <c r="F8" s="116" t="s">
         <v>262</v>
       </c>
-      <c r="G8" s="122" t="s">
+      <c r="G8" s="167" t="s">
         <v>292</v>
       </c>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="124"/>
+      <c r="H8" s="168"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="169"/>
       <c r="K8" s="115" t="s">
         <v>293</v>
       </c>
@@ -10071,10 +10238,10 @@
       <c r="D9" s="63"/>
       <c r="E9" s="63"/>
       <c r="F9" s="116"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="124"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="124"/>
+      <c r="I9" s="124"/>
+      <c r="J9" s="125"/>
       <c r="K9" s="113"/>
       <c r="L9" s="113"/>
       <c r="M9" s="74"/>
@@ -10092,10 +10259,10 @@
       <c r="D10" s="63"/>
       <c r="E10" s="63"/>
       <c r="F10" s="63"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="124"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="125"/>
       <c r="K10" s="113"/>
       <c r="L10" s="113"/>
       <c r="M10" s="74"/>
@@ -10113,10 +10280,10 @@
       <c r="D11" s="63"/>
       <c r="E11" s="63"/>
       <c r="F11" s="63"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="124"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="124"/>
+      <c r="J11" s="125"/>
       <c r="K11" s="113"/>
       <c r="L11" s="113"/>
       <c r="M11" s="74"/>
@@ -10134,10 +10301,10 @@
       <c r="D12" s="63"/>
       <c r="E12" s="63"/>
       <c r="F12" s="63"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="124"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="125"/>
       <c r="K12" s="113"/>
       <c r="L12" s="113"/>
       <c r="M12" s="74"/>
@@ -10155,10 +10322,10 @@
       <c r="D13" s="63"/>
       <c r="E13" s="63"/>
       <c r="F13" s="63"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="124"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="125"/>
       <c r="K13" s="113"/>
       <c r="L13" s="113"/>
       <c r="M13" s="74"/>
@@ -10176,10 +10343,10 @@
       <c r="D14" s="63"/>
       <c r="E14" s="63"/>
       <c r="F14" s="63"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="124"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="124"/>
+      <c r="J14" s="125"/>
       <c r="K14" s="113"/>
       <c r="L14" s="113"/>
       <c r="M14" s="74"/>
@@ -10197,10 +10364,10 @@
       <c r="D15" s="63"/>
       <c r="E15" s="63"/>
       <c r="F15" s="63"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="124"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="124"/>
+      <c r="J15" s="125"/>
       <c r="K15" s="113"/>
       <c r="L15" s="113"/>
       <c r="M15" s="74"/>
@@ -10218,10 +10385,10 @@
       <c r="D16" s="63"/>
       <c r="E16" s="63"/>
       <c r="F16" s="40"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="124"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="124"/>
+      <c r="J16" s="125"/>
       <c r="K16" s="113"/>
       <c r="L16" s="114"/>
       <c r="M16" s="74"/>
@@ -10239,10 +10406,10 @@
       <c r="D17" s="63"/>
       <c r="E17" s="63"/>
       <c r="F17" s="40"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="124"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="124"/>
+      <c r="J17" s="125"/>
       <c r="K17" s="114"/>
       <c r="L17" s="114"/>
       <c r="M17" s="74"/>
@@ -10260,10 +10427,10 @@
       <c r="D18" s="63"/>
       <c r="E18" s="63"/>
       <c r="F18" s="40"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="124"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="124"/>
+      <c r="J18" s="125"/>
       <c r="K18" s="114"/>
       <c r="L18" s="114"/>
       <c r="M18" s="74"/>
@@ -10281,10 +10448,10 @@
       <c r="D19" s="63"/>
       <c r="E19" s="63"/>
       <c r="F19" s="40"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="124"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="124"/>
+      <c r="J19" s="125"/>
       <c r="K19" s="114"/>
       <c r="L19" s="114"/>
       <c r="M19" s="74"/>
@@ -10302,10 +10469,10 @@
       <c r="D20" s="63"/>
       <c r="E20" s="63"/>
       <c r="F20" s="40"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="124"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="124"/>
+      <c r="J20" s="125"/>
       <c r="K20" s="114"/>
       <c r="L20" s="114"/>
       <c r="M20" s="74"/>
@@ -10323,10 +10490,10 @@
       <c r="D21" s="63"/>
       <c r="E21" s="63"/>
       <c r="F21" s="40"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="124"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="124"/>
+      <c r="I21" s="124"/>
+      <c r="J21" s="125"/>
       <c r="K21" s="114"/>
       <c r="L21" s="114"/>
       <c r="M21" s="74"/>
@@ -10344,10 +10511,10 @@
       <c r="D22" s="63"/>
       <c r="E22" s="63"/>
       <c r="F22" s="40"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="124"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="124"/>
+      <c r="I22" s="124"/>
+      <c r="J22" s="125"/>
       <c r="K22" s="114"/>
       <c r="L22" s="114"/>
       <c r="M22" s="74"/>
@@ -10365,10 +10532,10 @@
       <c r="D23" s="63"/>
       <c r="E23" s="63"/>
       <c r="F23" s="40"/>
-      <c r="G23" s="122"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="124"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="124"/>
+      <c r="I23" s="124"/>
+      <c r="J23" s="125"/>
       <c r="K23" s="114"/>
       <c r="L23" s="114"/>
       <c r="M23" s="74"/>
@@ -10386,10 +10553,10 @@
       <c r="D24" s="63"/>
       <c r="E24" s="63"/>
       <c r="F24" s="40"/>
-      <c r="G24" s="122"/>
-      <c r="H24" s="123"/>
-      <c r="I24" s="123"/>
-      <c r="J24" s="124"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="124"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="125"/>
       <c r="K24" s="114"/>
       <c r="L24" s="114"/>
       <c r="M24" s="74"/>
@@ -10407,10 +10574,10 @@
       <c r="D25" s="63"/>
       <c r="E25" s="63"/>
       <c r="F25" s="40"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="123"/>
-      <c r="J25" s="124"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="124"/>
+      <c r="I25" s="124"/>
+      <c r="J25" s="125"/>
       <c r="K25" s="114"/>
       <c r="L25" s="114"/>
       <c r="M25" s="74"/>
@@ -10428,10 +10595,10 @@
       <c r="D26" s="63"/>
       <c r="E26" s="63"/>
       <c r="F26" s="40"/>
-      <c r="G26" s="122"/>
-      <c r="H26" s="123"/>
-      <c r="I26" s="123"/>
-      <c r="J26" s="124"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="124"/>
+      <c r="I26" s="124"/>
+      <c r="J26" s="125"/>
       <c r="K26" s="114"/>
       <c r="L26" s="114"/>
       <c r="M26" s="74"/>
@@ -10449,10 +10616,10 @@
       <c r="D27" s="63"/>
       <c r="E27" s="63"/>
       <c r="F27" s="40"/>
-      <c r="G27" s="122"/>
-      <c r="H27" s="123"/>
-      <c r="I27" s="123"/>
-      <c r="J27" s="124"/>
+      <c r="G27" s="123"/>
+      <c r="H27" s="124"/>
+      <c r="I27" s="124"/>
+      <c r="J27" s="125"/>
       <c r="K27" s="114"/>
       <c r="L27" s="114"/>
       <c r="M27" s="74"/>
@@ -10470,10 +10637,10 @@
       <c r="D28" s="63"/>
       <c r="E28" s="63"/>
       <c r="F28" s="40"/>
-      <c r="G28" s="122"/>
-      <c r="H28" s="123"/>
-      <c r="I28" s="123"/>
-      <c r="J28" s="124"/>
+      <c r="G28" s="123"/>
+      <c r="H28" s="124"/>
+      <c r="I28" s="124"/>
+      <c r="J28" s="125"/>
       <c r="K28" s="114"/>
       <c r="L28" s="114"/>
       <c r="M28" s="74"/>
@@ -10491,10 +10658,10 @@
       <c r="D29" s="63"/>
       <c r="E29" s="63"/>
       <c r="F29" s="40"/>
-      <c r="G29" s="122"/>
-      <c r="H29" s="123"/>
-      <c r="I29" s="123"/>
-      <c r="J29" s="124"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="124"/>
+      <c r="I29" s="124"/>
+      <c r="J29" s="125"/>
       <c r="K29" s="114"/>
       <c r="L29" s="114"/>
       <c r="M29" s="74"/>
@@ -10512,10 +10679,10 @@
       <c r="D30" s="63"/>
       <c r="E30" s="63"/>
       <c r="F30" s="40"/>
-      <c r="G30" s="122"/>
-      <c r="H30" s="123"/>
-      <c r="I30" s="123"/>
-      <c r="J30" s="124"/>
+      <c r="G30" s="123"/>
+      <c r="H30" s="124"/>
+      <c r="I30" s="124"/>
+      <c r="J30" s="125"/>
       <c r="K30" s="114"/>
       <c r="L30" s="114"/>
       <c r="M30" s="74"/>
@@ -10533,10 +10700,10 @@
       <c r="D31" s="63"/>
       <c r="E31" s="63"/>
       <c r="F31" s="40"/>
-      <c r="G31" s="122"/>
-      <c r="H31" s="123"/>
-      <c r="I31" s="123"/>
-      <c r="J31" s="124"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="124"/>
+      <c r="I31" s="124"/>
+      <c r="J31" s="125"/>
       <c r="K31" s="114"/>
       <c r="L31" s="114"/>
       <c r="M31" s="74"/>
@@ -10554,10 +10721,10 @@
       <c r="D32" s="63"/>
       <c r="E32" s="63"/>
       <c r="F32" s="40"/>
-      <c r="G32" s="122"/>
-      <c r="H32" s="123"/>
-      <c r="I32" s="123"/>
-      <c r="J32" s="124"/>
+      <c r="G32" s="123"/>
+      <c r="H32" s="124"/>
+      <c r="I32" s="124"/>
+      <c r="J32" s="125"/>
       <c r="K32" s="114"/>
       <c r="L32" s="114"/>
       <c r="M32" s="74"/>
@@ -10575,10 +10742,10 @@
       <c r="D33" s="63"/>
       <c r="E33" s="63"/>
       <c r="F33" s="40"/>
-      <c r="G33" s="122"/>
-      <c r="H33" s="123"/>
-      <c r="I33" s="123"/>
-      <c r="J33" s="124"/>
+      <c r="G33" s="123"/>
+      <c r="H33" s="124"/>
+      <c r="I33" s="124"/>
+      <c r="J33" s="125"/>
       <c r="K33" s="114"/>
       <c r="L33" s="114"/>
       <c r="M33" s="74"/>
@@ -10596,10 +10763,10 @@
       <c r="D34" s="63"/>
       <c r="E34" s="63"/>
       <c r="F34" s="63"/>
-      <c r="G34" s="122"/>
-      <c r="H34" s="123"/>
-      <c r="I34" s="123"/>
-      <c r="J34" s="124"/>
+      <c r="G34" s="123"/>
+      <c r="H34" s="124"/>
+      <c r="I34" s="124"/>
+      <c r="J34" s="125"/>
       <c r="K34" s="113"/>
       <c r="L34" s="113"/>
       <c r="M34" s="74"/>
@@ -10617,10 +10784,10 @@
       <c r="D35" s="63"/>
       <c r="E35" s="63"/>
       <c r="F35" s="40"/>
-      <c r="G35" s="122"/>
-      <c r="H35" s="123"/>
-      <c r="I35" s="123"/>
-      <c r="J35" s="124"/>
+      <c r="G35" s="123"/>
+      <c r="H35" s="124"/>
+      <c r="I35" s="124"/>
+      <c r="J35" s="125"/>
       <c r="K35" s="60"/>
       <c r="L35" s="60"/>
       <c r="M35" s="74"/>
@@ -10638,10 +10805,10 @@
       <c r="D36" s="63"/>
       <c r="E36" s="63"/>
       <c r="F36" s="40"/>
-      <c r="G36" s="122"/>
-      <c r="H36" s="123"/>
-      <c r="I36" s="123"/>
-      <c r="J36" s="124"/>
+      <c r="G36" s="123"/>
+      <c r="H36" s="124"/>
+      <c r="I36" s="124"/>
+      <c r="J36" s="125"/>
       <c r="K36" s="60"/>
       <c r="L36" s="60"/>
       <c r="M36" s="74"/>
@@ -10659,10 +10826,10 @@
       <c r="D37" s="63"/>
       <c r="E37" s="63"/>
       <c r="F37" s="40"/>
-      <c r="G37" s="122"/>
-      <c r="H37" s="123"/>
-      <c r="I37" s="123"/>
-      <c r="J37" s="124"/>
+      <c r="G37" s="123"/>
+      <c r="H37" s="124"/>
+      <c r="I37" s="124"/>
+      <c r="J37" s="125"/>
       <c r="K37" s="60"/>
       <c r="L37" s="60"/>
       <c r="M37" s="74"/>
@@ -10680,10 +10847,10 @@
       <c r="D38" s="63"/>
       <c r="E38" s="63"/>
       <c r="F38" s="40"/>
-      <c r="G38" s="122"/>
-      <c r="H38" s="123"/>
-      <c r="I38" s="123"/>
-      <c r="J38" s="124"/>
+      <c r="G38" s="123"/>
+      <c r="H38" s="124"/>
+      <c r="I38" s="124"/>
+      <c r="J38" s="125"/>
       <c r="K38" s="60"/>
       <c r="L38" s="60"/>
       <c r="M38" s="74"/>
@@ -10701,10 +10868,10 @@
       <c r="D39" s="63"/>
       <c r="E39" s="63"/>
       <c r="F39" s="40"/>
-      <c r="G39" s="122"/>
-      <c r="H39" s="123"/>
-      <c r="I39" s="123"/>
-      <c r="J39" s="124"/>
+      <c r="G39" s="123"/>
+      <c r="H39" s="124"/>
+      <c r="I39" s="124"/>
+      <c r="J39" s="125"/>
       <c r="K39" s="60"/>
       <c r="L39" s="60"/>
       <c r="M39" s="74"/>
@@ -10722,10 +10889,10 @@
       <c r="D40" s="63"/>
       <c r="E40" s="63"/>
       <c r="F40" s="40"/>
-      <c r="G40" s="122"/>
-      <c r="H40" s="123"/>
-      <c r="I40" s="123"/>
-      <c r="J40" s="124"/>
+      <c r="G40" s="123"/>
+      <c r="H40" s="124"/>
+      <c r="I40" s="124"/>
+      <c r="J40" s="125"/>
       <c r="K40" s="72"/>
       <c r="L40" s="72"/>
       <c r="M40" s="74"/>
@@ -10743,10 +10910,10 @@
       <c r="D41" s="63"/>
       <c r="E41" s="63"/>
       <c r="F41" s="40"/>
-      <c r="G41" s="160"/>
-      <c r="H41" s="161"/>
-      <c r="I41" s="161"/>
-      <c r="J41" s="162"/>
+      <c r="G41" s="159"/>
+      <c r="H41" s="160"/>
+      <c r="I41" s="160"/>
+      <c r="J41" s="161"/>
       <c r="K41" s="72"/>
       <c r="L41" s="72"/>
       <c r="M41" s="74"/>
@@ -10764,10 +10931,10 @@
       <c r="D42" s="63"/>
       <c r="E42" s="63"/>
       <c r="F42" s="40"/>
-      <c r="G42" s="160"/>
-      <c r="H42" s="161"/>
-      <c r="I42" s="161"/>
-      <c r="J42" s="162"/>
+      <c r="G42" s="159"/>
+      <c r="H42" s="160"/>
+      <c r="I42" s="160"/>
+      <c r="J42" s="161"/>
       <c r="K42" s="72"/>
       <c r="L42" s="72"/>
       <c r="M42" s="74"/>
@@ -10785,10 +10952,10 @@
       <c r="D43" s="63"/>
       <c r="E43" s="63"/>
       <c r="F43" s="40"/>
-      <c r="G43" s="160"/>
-      <c r="H43" s="161"/>
-      <c r="I43" s="161"/>
-      <c r="J43" s="162"/>
+      <c r="G43" s="159"/>
+      <c r="H43" s="160"/>
+      <c r="I43" s="160"/>
+      <c r="J43" s="161"/>
       <c r="K43" s="72"/>
       <c r="L43" s="72"/>
       <c r="M43" s="74"/>
@@ -10806,10 +10973,10 @@
       <c r="D44" s="63"/>
       <c r="E44" s="63"/>
       <c r="F44" s="40"/>
-      <c r="G44" s="160"/>
-      <c r="H44" s="161"/>
-      <c r="I44" s="161"/>
-      <c r="J44" s="162"/>
+      <c r="G44" s="159"/>
+      <c r="H44" s="160"/>
+      <c r="I44" s="160"/>
+      <c r="J44" s="161"/>
       <c r="K44" s="72"/>
       <c r="L44" s="72"/>
       <c r="M44" s="74"/>
@@ -10827,10 +10994,10 @@
       <c r="D45" s="63"/>
       <c r="E45" s="63"/>
       <c r="F45" s="40"/>
-      <c r="G45" s="160"/>
-      <c r="H45" s="161"/>
-      <c r="I45" s="161"/>
-      <c r="J45" s="162"/>
+      <c r="G45" s="159"/>
+      <c r="H45" s="160"/>
+      <c r="I45" s="160"/>
+      <c r="J45" s="161"/>
       <c r="K45" s="72"/>
       <c r="L45" s="72"/>
       <c r="M45" s="74"/>
@@ -10848,10 +11015,10 @@
       <c r="D46" s="63"/>
       <c r="E46" s="63"/>
       <c r="F46" s="40"/>
-      <c r="G46" s="160"/>
-      <c r="H46" s="161"/>
-      <c r="I46" s="161"/>
-      <c r="J46" s="162"/>
+      <c r="G46" s="159"/>
+      <c r="H46" s="160"/>
+      <c r="I46" s="160"/>
+      <c r="J46" s="161"/>
       <c r="K46" s="72"/>
       <c r="L46" s="72"/>
       <c r="M46" s="74"/>
@@ -10869,10 +11036,10 @@
       <c r="D47" s="63"/>
       <c r="E47" s="63"/>
       <c r="F47" s="40"/>
-      <c r="G47" s="160"/>
-      <c r="H47" s="161"/>
-      <c r="I47" s="161"/>
-      <c r="J47" s="162"/>
+      <c r="G47" s="159"/>
+      <c r="H47" s="160"/>
+      <c r="I47" s="160"/>
+      <c r="J47" s="161"/>
       <c r="K47" s="72"/>
       <c r="L47" s="72"/>
       <c r="M47" s="74"/>
@@ -10890,10 +11057,10 @@
       <c r="D48" s="63"/>
       <c r="E48" s="63"/>
       <c r="F48" s="40"/>
-      <c r="G48" s="160"/>
-      <c r="H48" s="161"/>
-      <c r="I48" s="161"/>
-      <c r="J48" s="162"/>
+      <c r="G48" s="159"/>
+      <c r="H48" s="160"/>
+      <c r="I48" s="160"/>
+      <c r="J48" s="161"/>
       <c r="K48" s="72"/>
       <c r="L48" s="72"/>
       <c r="M48" s="74"/>
@@ -10911,10 +11078,10 @@
       <c r="D49" s="63"/>
       <c r="E49" s="63"/>
       <c r="F49" s="40"/>
-      <c r="G49" s="160"/>
-      <c r="H49" s="161"/>
-      <c r="I49" s="161"/>
-      <c r="J49" s="162"/>
+      <c r="G49" s="159"/>
+      <c r="H49" s="160"/>
+      <c r="I49" s="160"/>
+      <c r="J49" s="161"/>
       <c r="K49" s="72"/>
       <c r="L49" s="72"/>
       <c r="M49" s="74"/>
@@ -10932,10 +11099,10 @@
       <c r="D50" s="63"/>
       <c r="E50" s="63"/>
       <c r="F50" s="40"/>
-      <c r="G50" s="160"/>
-      <c r="H50" s="161"/>
-      <c r="I50" s="161"/>
-      <c r="J50" s="162"/>
+      <c r="G50" s="159"/>
+      <c r="H50" s="160"/>
+      <c r="I50" s="160"/>
+      <c r="J50" s="161"/>
       <c r="K50" s="72"/>
       <c r="L50" s="72"/>
       <c r="M50" s="74"/>
@@ -10953,10 +11120,10 @@
       <c r="D51" s="63"/>
       <c r="E51" s="63"/>
       <c r="F51" s="40"/>
-      <c r="G51" s="160"/>
-      <c r="H51" s="161"/>
-      <c r="I51" s="161"/>
-      <c r="J51" s="162"/>
+      <c r="G51" s="159"/>
+      <c r="H51" s="160"/>
+      <c r="I51" s="160"/>
+      <c r="J51" s="161"/>
       <c r="K51" s="72"/>
       <c r="L51" s="72"/>
       <c r="M51" s="74"/>
@@ -10974,10 +11141,10 @@
       <c r="D52" s="63"/>
       <c r="E52" s="63"/>
       <c r="F52" s="40"/>
-      <c r="G52" s="160"/>
-      <c r="H52" s="161"/>
-      <c r="I52" s="161"/>
-      <c r="J52" s="162"/>
+      <c r="G52" s="159"/>
+      <c r="H52" s="160"/>
+      <c r="I52" s="160"/>
+      <c r="J52" s="161"/>
       <c r="K52" s="72"/>
       <c r="L52" s="72"/>
       <c r="M52" s="74"/>
@@ -10995,10 +11162,10 @@
       <c r="D53" s="63"/>
       <c r="E53" s="63"/>
       <c r="F53" s="40"/>
-      <c r="G53" s="160"/>
-      <c r="H53" s="161"/>
-      <c r="I53" s="161"/>
-      <c r="J53" s="162"/>
+      <c r="G53" s="159"/>
+      <c r="H53" s="160"/>
+      <c r="I53" s="160"/>
+      <c r="J53" s="161"/>
       <c r="K53" s="72"/>
       <c r="L53" s="72"/>
       <c r="M53" s="74"/>
@@ -11016,10 +11183,10 @@
       <c r="D54" s="63"/>
       <c r="E54" s="63"/>
       <c r="F54" s="40"/>
-      <c r="G54" s="160"/>
-      <c r="H54" s="161"/>
-      <c r="I54" s="161"/>
-      <c r="J54" s="162"/>
+      <c r="G54" s="159"/>
+      <c r="H54" s="160"/>
+      <c r="I54" s="160"/>
+      <c r="J54" s="161"/>
       <c r="K54" s="72"/>
       <c r="L54" s="72"/>
       <c r="M54" s="74"/>
@@ -11037,10 +11204,10 @@
       <c r="D55" s="63"/>
       <c r="E55" s="63"/>
       <c r="F55" s="40"/>
-      <c r="G55" s="160"/>
-      <c r="H55" s="161"/>
-      <c r="I55" s="161"/>
-      <c r="J55" s="162"/>
+      <c r="G55" s="159"/>
+      <c r="H55" s="160"/>
+      <c r="I55" s="160"/>
+      <c r="J55" s="161"/>
       <c r="K55" s="72"/>
       <c r="L55" s="72"/>
       <c r="M55" s="74"/>
@@ -11058,10 +11225,10 @@
       <c r="D56" s="63"/>
       <c r="E56" s="63"/>
       <c r="F56" s="40"/>
-      <c r="G56" s="160"/>
-      <c r="H56" s="161"/>
-      <c r="I56" s="161"/>
-      <c r="J56" s="162"/>
+      <c r="G56" s="159"/>
+      <c r="H56" s="160"/>
+      <c r="I56" s="160"/>
+      <c r="J56" s="161"/>
       <c r="K56" s="72"/>
       <c r="L56" s="72"/>
       <c r="M56" s="74"/>
@@ -11079,10 +11246,10 @@
       <c r="D57" s="63"/>
       <c r="E57" s="63"/>
       <c r="F57" s="40"/>
-      <c r="G57" s="160"/>
-      <c r="H57" s="161"/>
-      <c r="I57" s="161"/>
-      <c r="J57" s="162"/>
+      <c r="G57" s="159"/>
+      <c r="H57" s="160"/>
+      <c r="I57" s="160"/>
+      <c r="J57" s="161"/>
       <c r="K57" s="72"/>
       <c r="L57" s="72"/>
       <c r="M57" s="74"/>
@@ -11100,10 +11267,10 @@
       <c r="D58" s="63"/>
       <c r="E58" s="63"/>
       <c r="F58" s="40"/>
-      <c r="G58" s="160"/>
-      <c r="H58" s="161"/>
-      <c r="I58" s="161"/>
-      <c r="J58" s="162"/>
+      <c r="G58" s="159"/>
+      <c r="H58" s="160"/>
+      <c r="I58" s="160"/>
+      <c r="J58" s="161"/>
       <c r="K58" s="72"/>
       <c r="L58" s="72"/>
       <c r="M58" s="74"/>
@@ -11121,10 +11288,10 @@
       <c r="D59" s="63"/>
       <c r="E59" s="63"/>
       <c r="F59" s="40"/>
-      <c r="G59" s="160"/>
-      <c r="H59" s="161"/>
-      <c r="I59" s="161"/>
-      <c r="J59" s="162"/>
+      <c r="G59" s="159"/>
+      <c r="H59" s="160"/>
+      <c r="I59" s="160"/>
+      <c r="J59" s="161"/>
       <c r="K59" s="72"/>
       <c r="L59" s="72"/>
       <c r="M59" s="74"/>
@@ -11142,10 +11309,10 @@
       <c r="D60" s="63"/>
       <c r="E60" s="63"/>
       <c r="F60" s="40"/>
-      <c r="G60" s="160"/>
-      <c r="H60" s="161"/>
-      <c r="I60" s="161"/>
-      <c r="J60" s="162"/>
+      <c r="G60" s="159"/>
+      <c r="H60" s="160"/>
+      <c r="I60" s="160"/>
+      <c r="J60" s="161"/>
       <c r="K60" s="72"/>
       <c r="L60" s="72"/>
       <c r="M60" s="74"/>
@@ -11163,10 +11330,10 @@
       <c r="D61" s="63"/>
       <c r="E61" s="63"/>
       <c r="F61" s="40"/>
-      <c r="G61" s="160"/>
-      <c r="H61" s="161"/>
-      <c r="I61" s="161"/>
-      <c r="J61" s="162"/>
+      <c r="G61" s="159"/>
+      <c r="H61" s="160"/>
+      <c r="I61" s="160"/>
+      <c r="J61" s="161"/>
       <c r="K61" s="72"/>
       <c r="L61" s="72"/>
       <c r="M61" s="74"/>
@@ -11184,10 +11351,10 @@
       <c r="D62" s="63"/>
       <c r="E62" s="63"/>
       <c r="F62" s="40"/>
-      <c r="G62" s="160"/>
-      <c r="H62" s="161"/>
-      <c r="I62" s="161"/>
-      <c r="J62" s="162"/>
+      <c r="G62" s="159"/>
+      <c r="H62" s="160"/>
+      <c r="I62" s="160"/>
+      <c r="J62" s="161"/>
       <c r="K62" s="81"/>
       <c r="L62" s="81"/>
       <c r="M62" s="74"/>
@@ -11205,10 +11372,10 @@
       <c r="D63" s="63"/>
       <c r="E63" s="63"/>
       <c r="F63" s="40"/>
-      <c r="G63" s="160"/>
-      <c r="H63" s="161"/>
-      <c r="I63" s="161"/>
-      <c r="J63" s="162"/>
+      <c r="G63" s="159"/>
+      <c r="H63" s="160"/>
+      <c r="I63" s="160"/>
+      <c r="J63" s="161"/>
       <c r="K63" s="81"/>
       <c r="L63" s="81"/>
       <c r="M63" s="74"/>
@@ -11226,10 +11393,10 @@
       <c r="D64" s="63"/>
       <c r="E64" s="63"/>
       <c r="F64" s="40"/>
-      <c r="G64" s="160"/>
-      <c r="H64" s="161"/>
-      <c r="I64" s="161"/>
-      <c r="J64" s="162"/>
+      <c r="G64" s="159"/>
+      <c r="H64" s="160"/>
+      <c r="I64" s="160"/>
+      <c r="J64" s="161"/>
       <c r="K64" s="81"/>
       <c r="L64" s="81"/>
       <c r="M64" s="74"/>
@@ -11245,10 +11412,10 @@
       <c r="D65" s="63"/>
       <c r="E65" s="63"/>
       <c r="F65" s="40"/>
-      <c r="G65" s="160"/>
-      <c r="H65" s="161"/>
-      <c r="I65" s="161"/>
-      <c r="J65" s="162"/>
+      <c r="G65" s="159"/>
+      <c r="H65" s="160"/>
+      <c r="I65" s="160"/>
+      <c r="J65" s="161"/>
       <c r="K65" s="81"/>
       <c r="L65" s="81"/>
       <c r="M65" s="74"/>
@@ -11264,10 +11431,10 @@
       <c r="D66" s="63"/>
       <c r="E66" s="63"/>
       <c r="F66" s="40"/>
-      <c r="G66" s="160"/>
-      <c r="H66" s="161"/>
-      <c r="I66" s="161"/>
-      <c r="J66" s="162"/>
+      <c r="G66" s="159"/>
+      <c r="H66" s="160"/>
+      <c r="I66" s="160"/>
+      <c r="J66" s="161"/>
       <c r="K66" s="81"/>
       <c r="L66" s="81"/>
       <c r="M66" s="74"/>
@@ -11283,10 +11450,10 @@
       <c r="D67" s="63"/>
       <c r="E67" s="63"/>
       <c r="F67" s="40"/>
-      <c r="G67" s="160"/>
-      <c r="H67" s="161"/>
-      <c r="I67" s="161"/>
-      <c r="J67" s="162"/>
+      <c r="G67" s="159"/>
+      <c r="H67" s="160"/>
+      <c r="I67" s="160"/>
+      <c r="J67" s="161"/>
       <c r="K67" s="81"/>
       <c r="L67" s="81"/>
       <c r="M67" s="74"/>
@@ -11302,10 +11469,10 @@
       <c r="D68" s="63"/>
       <c r="E68" s="63"/>
       <c r="F68" s="40"/>
-      <c r="G68" s="160"/>
-      <c r="H68" s="161"/>
-      <c r="I68" s="161"/>
-      <c r="J68" s="162"/>
+      <c r="G68" s="159"/>
+      <c r="H68" s="160"/>
+      <c r="I68" s="160"/>
+      <c r="J68" s="161"/>
       <c r="K68" s="81"/>
       <c r="L68" s="81"/>
       <c r="M68" s="74"/>
@@ -11321,10 +11488,10 @@
       <c r="D69" s="63"/>
       <c r="E69" s="63"/>
       <c r="F69" s="40"/>
-      <c r="G69" s="160"/>
-      <c r="H69" s="161"/>
-      <c r="I69" s="161"/>
-      <c r="J69" s="162"/>
+      <c r="G69" s="159"/>
+      <c r="H69" s="160"/>
+      <c r="I69" s="160"/>
+      <c r="J69" s="161"/>
       <c r="K69" s="81"/>
       <c r="L69" s="81"/>
       <c r="M69" s="74"/>
@@ -11340,10 +11507,10 @@
       <c r="D70" s="63"/>
       <c r="E70" s="63"/>
       <c r="F70" s="40"/>
-      <c r="G70" s="160"/>
-      <c r="H70" s="161"/>
-      <c r="I70" s="161"/>
-      <c r="J70" s="162"/>
+      <c r="G70" s="159"/>
+      <c r="H70" s="160"/>
+      <c r="I70" s="160"/>
+      <c r="J70" s="161"/>
       <c r="K70" s="81"/>
       <c r="L70" s="81"/>
       <c r="M70" s="74"/>
@@ -11359,10 +11526,10 @@
       <c r="D71" s="63"/>
       <c r="E71" s="63"/>
       <c r="F71" s="40"/>
-      <c r="G71" s="160"/>
-      <c r="H71" s="161"/>
-      <c r="I71" s="161"/>
-      <c r="J71" s="162"/>
+      <c r="G71" s="159"/>
+      <c r="H71" s="160"/>
+      <c r="I71" s="160"/>
+      <c r="J71" s="161"/>
       <c r="K71" s="81"/>
       <c r="L71" s="81"/>
       <c r="M71" s="74"/>
@@ -11378,10 +11545,10 @@
       <c r="D72" s="63"/>
       <c r="E72" s="63"/>
       <c r="F72" s="40"/>
-      <c r="G72" s="160"/>
-      <c r="H72" s="161"/>
-      <c r="I72" s="161"/>
-      <c r="J72" s="162"/>
+      <c r="G72" s="159"/>
+      <c r="H72" s="160"/>
+      <c r="I72" s="160"/>
+      <c r="J72" s="161"/>
       <c r="K72" s="81"/>
       <c r="L72" s="81"/>
       <c r="M72" s="74"/>
@@ -11397,10 +11564,10 @@
       <c r="D73" s="63"/>
       <c r="E73" s="63"/>
       <c r="F73" s="40"/>
-      <c r="G73" s="160"/>
-      <c r="H73" s="161"/>
-      <c r="I73" s="161"/>
-      <c r="J73" s="162"/>
+      <c r="G73" s="159"/>
+      <c r="H73" s="160"/>
+      <c r="I73" s="160"/>
+      <c r="J73" s="161"/>
       <c r="K73" s="81"/>
       <c r="L73" s="81"/>
       <c r="M73" s="74"/>
@@ -11416,10 +11583,10 @@
       <c r="D74" s="63"/>
       <c r="E74" s="63"/>
       <c r="F74" s="40"/>
-      <c r="G74" s="160"/>
-      <c r="H74" s="161"/>
-      <c r="I74" s="161"/>
-      <c r="J74" s="162"/>
+      <c r="G74" s="159"/>
+      <c r="H74" s="160"/>
+      <c r="I74" s="160"/>
+      <c r="J74" s="161"/>
       <c r="K74" s="81"/>
       <c r="L74" s="81"/>
       <c r="M74" s="74"/>
@@ -11435,10 +11602,10 @@
       <c r="D75" s="63"/>
       <c r="E75" s="63"/>
       <c r="F75" s="40"/>
-      <c r="G75" s="160"/>
-      <c r="H75" s="161"/>
-      <c r="I75" s="161"/>
-      <c r="J75" s="162"/>
+      <c r="G75" s="159"/>
+      <c r="H75" s="160"/>
+      <c r="I75" s="160"/>
+      <c r="J75" s="161"/>
       <c r="K75" s="81"/>
       <c r="L75" s="81"/>
       <c r="M75" s="74"/>
@@ -11454,10 +11621,10 @@
       <c r="D76" s="63"/>
       <c r="E76" s="63"/>
       <c r="F76" s="40"/>
-      <c r="G76" s="160"/>
-      <c r="H76" s="161"/>
-      <c r="I76" s="161"/>
-      <c r="J76" s="162"/>
+      <c r="G76" s="159"/>
+      <c r="H76" s="160"/>
+      <c r="I76" s="160"/>
+      <c r="J76" s="161"/>
       <c r="K76" s="81"/>
       <c r="L76" s="81"/>
       <c r="M76" s="74"/>
@@ -11473,10 +11640,10 @@
       <c r="D77" s="63"/>
       <c r="E77" s="63"/>
       <c r="F77" s="40"/>
-      <c r="G77" s="160"/>
-      <c r="H77" s="161"/>
-      <c r="I77" s="161"/>
-      <c r="J77" s="162"/>
+      <c r="G77" s="159"/>
+      <c r="H77" s="160"/>
+      <c r="I77" s="160"/>
+      <c r="J77" s="161"/>
       <c r="K77" s="81"/>
       <c r="L77" s="81"/>
       <c r="M77" s="74"/>
@@ -11492,10 +11659,10 @@
       <c r="D78" s="63"/>
       <c r="E78" s="63"/>
       <c r="F78" s="40"/>
-      <c r="G78" s="160"/>
-      <c r="H78" s="161"/>
-      <c r="I78" s="161"/>
-      <c r="J78" s="162"/>
+      <c r="G78" s="159"/>
+      <c r="H78" s="160"/>
+      <c r="I78" s="160"/>
+      <c r="J78" s="161"/>
       <c r="K78" s="81"/>
       <c r="L78" s="81"/>
       <c r="M78" s="74"/>
@@ -11511,10 +11678,10 @@
       <c r="D79" s="63"/>
       <c r="E79" s="63"/>
       <c r="F79" s="40"/>
-      <c r="G79" s="160"/>
-      <c r="H79" s="161"/>
-      <c r="I79" s="161"/>
-      <c r="J79" s="162"/>
+      <c r="G79" s="159"/>
+      <c r="H79" s="160"/>
+      <c r="I79" s="160"/>
+      <c r="J79" s="161"/>
       <c r="K79" s="81"/>
       <c r="L79" s="81"/>
       <c r="M79" s="74"/>
@@ -11530,10 +11697,10 @@
       <c r="D80" s="63"/>
       <c r="E80" s="63"/>
       <c r="F80" s="40"/>
-      <c r="G80" s="160"/>
-      <c r="H80" s="161"/>
-      <c r="I80" s="161"/>
-      <c r="J80" s="162"/>
+      <c r="G80" s="159"/>
+      <c r="H80" s="160"/>
+      <c r="I80" s="160"/>
+      <c r="J80" s="161"/>
       <c r="K80" s="81"/>
       <c r="L80" s="81"/>
       <c r="M80" s="74"/>
@@ -11549,10 +11716,10 @@
       <c r="D81" s="63"/>
       <c r="E81" s="63"/>
       <c r="F81" s="40"/>
-      <c r="G81" s="160"/>
-      <c r="H81" s="161"/>
-      <c r="I81" s="161"/>
-      <c r="J81" s="162"/>
+      <c r="G81" s="159"/>
+      <c r="H81" s="160"/>
+      <c r="I81" s="160"/>
+      <c r="J81" s="161"/>
       <c r="K81" s="81"/>
       <c r="L81" s="81"/>
       <c r="M81" s="74"/>
@@ -11568,10 +11735,10 @@
       <c r="D82" s="63"/>
       <c r="E82" s="63"/>
       <c r="F82" s="40"/>
-      <c r="G82" s="160"/>
-      <c r="H82" s="161"/>
-      <c r="I82" s="161"/>
-      <c r="J82" s="162"/>
+      <c r="G82" s="159"/>
+      <c r="H82" s="160"/>
+      <c r="I82" s="160"/>
+      <c r="J82" s="161"/>
       <c r="K82" s="81"/>
       <c r="L82" s="81"/>
       <c r="M82" s="74"/>
@@ -11587,10 +11754,10 @@
       <c r="D83" s="63"/>
       <c r="E83" s="63"/>
       <c r="F83" s="40"/>
-      <c r="G83" s="160"/>
-      <c r="H83" s="161"/>
-      <c r="I83" s="161"/>
-      <c r="J83" s="162"/>
+      <c r="G83" s="159"/>
+      <c r="H83" s="160"/>
+      <c r="I83" s="160"/>
+      <c r="J83" s="161"/>
       <c r="K83" s="81"/>
       <c r="L83" s="81"/>
       <c r="M83" s="74"/>
@@ -11606,10 +11773,10 @@
       <c r="D84" s="63"/>
       <c r="E84" s="63"/>
       <c r="F84" s="40"/>
-      <c r="G84" s="160"/>
-      <c r="H84" s="161"/>
-      <c r="I84" s="161"/>
-      <c r="J84" s="162"/>
+      <c r="G84" s="159"/>
+      <c r="H84" s="160"/>
+      <c r="I84" s="160"/>
+      <c r="J84" s="161"/>
       <c r="K84" s="81"/>
       <c r="L84" s="81"/>
       <c r="M84" s="74"/>
@@ -11625,10 +11792,10 @@
       <c r="D85" s="63"/>
       <c r="E85" s="63"/>
       <c r="F85" s="40"/>
-      <c r="G85" s="160"/>
-      <c r="H85" s="161"/>
-      <c r="I85" s="161"/>
-      <c r="J85" s="162"/>
+      <c r="G85" s="159"/>
+      <c r="H85" s="160"/>
+      <c r="I85" s="160"/>
+      <c r="J85" s="161"/>
       <c r="K85" s="81"/>
       <c r="L85" s="81"/>
       <c r="M85" s="74"/>
@@ -11644,10 +11811,10 @@
       <c r="D86" s="63"/>
       <c r="E86" s="63"/>
       <c r="F86" s="40"/>
-      <c r="G86" s="160"/>
-      <c r="H86" s="161"/>
-      <c r="I86" s="161"/>
-      <c r="J86" s="162"/>
+      <c r="G86" s="159"/>
+      <c r="H86" s="160"/>
+      <c r="I86" s="160"/>
+      <c r="J86" s="161"/>
       <c r="K86" s="81"/>
       <c r="L86" s="81"/>
       <c r="M86" s="74"/>
@@ -11663,10 +11830,10 @@
       <c r="D87" s="63"/>
       <c r="E87" s="63"/>
       <c r="F87" s="40"/>
-      <c r="G87" s="160"/>
-      <c r="H87" s="161"/>
-      <c r="I87" s="161"/>
-      <c r="J87" s="162"/>
+      <c r="G87" s="159"/>
+      <c r="H87" s="160"/>
+      <c r="I87" s="160"/>
+      <c r="J87" s="161"/>
       <c r="K87" s="81"/>
       <c r="L87" s="81"/>
       <c r="M87" s="74"/>
@@ -11682,10 +11849,10 @@
       <c r="D88" s="63"/>
       <c r="E88" s="63"/>
       <c r="F88" s="40"/>
-      <c r="G88" s="160"/>
-      <c r="H88" s="161"/>
-      <c r="I88" s="161"/>
-      <c r="J88" s="162"/>
+      <c r="G88" s="159"/>
+      <c r="H88" s="160"/>
+      <c r="I88" s="160"/>
+      <c r="J88" s="161"/>
       <c r="K88" s="81"/>
       <c r="L88" s="81"/>
       <c r="M88" s="74"/>
@@ -11701,10 +11868,10 @@
       <c r="D89" s="63"/>
       <c r="E89" s="63"/>
       <c r="F89" s="40"/>
-      <c r="G89" s="160"/>
-      <c r="H89" s="161"/>
-      <c r="I89" s="161"/>
-      <c r="J89" s="162"/>
+      <c r="G89" s="159"/>
+      <c r="H89" s="160"/>
+      <c r="I89" s="160"/>
+      <c r="J89" s="161"/>
       <c r="K89" s="81"/>
       <c r="L89" s="81"/>
       <c r="M89" s="74"/>
@@ -11720,10 +11887,10 @@
       <c r="D90" s="63"/>
       <c r="E90" s="63"/>
       <c r="F90" s="40"/>
-      <c r="G90" s="160"/>
-      <c r="H90" s="161"/>
-      <c r="I90" s="161"/>
-      <c r="J90" s="162"/>
+      <c r="G90" s="159"/>
+      <c r="H90" s="160"/>
+      <c r="I90" s="160"/>
+      <c r="J90" s="161"/>
       <c r="K90" s="81"/>
       <c r="L90" s="81"/>
       <c r="M90" s="74"/>
@@ -11739,10 +11906,10 @@
       <c r="D91" s="63"/>
       <c r="E91" s="63"/>
       <c r="F91" s="40"/>
-      <c r="G91" s="160"/>
-      <c r="H91" s="161"/>
-      <c r="I91" s="161"/>
-      <c r="J91" s="162"/>
+      <c r="G91" s="159"/>
+      <c r="H91" s="160"/>
+      <c r="I91" s="160"/>
+      <c r="J91" s="161"/>
       <c r="K91" s="81"/>
       <c r="L91" s="81"/>
       <c r="M91" s="74"/>
@@ -11758,10 +11925,10 @@
       <c r="D92" s="63"/>
       <c r="E92" s="63"/>
       <c r="F92" s="40"/>
-      <c r="G92" s="160"/>
-      <c r="H92" s="161"/>
-      <c r="I92" s="161"/>
-      <c r="J92" s="162"/>
+      <c r="G92" s="159"/>
+      <c r="H92" s="160"/>
+      <c r="I92" s="160"/>
+      <c r="J92" s="161"/>
       <c r="K92" s="81"/>
       <c r="L92" s="81"/>
       <c r="M92" s="74"/>
@@ -11777,10 +11944,10 @@
       <c r="D93" s="63"/>
       <c r="E93" s="63"/>
       <c r="F93" s="40"/>
-      <c r="G93" s="160"/>
-      <c r="H93" s="161"/>
-      <c r="I93" s="161"/>
-      <c r="J93" s="162"/>
+      <c r="G93" s="159"/>
+      <c r="H93" s="160"/>
+      <c r="I93" s="160"/>
+      <c r="J93" s="161"/>
       <c r="K93" s="81"/>
       <c r="L93" s="81"/>
       <c r="M93" s="74"/>
@@ -11796,10 +11963,10 @@
       <c r="D94" s="63"/>
       <c r="E94" s="63"/>
       <c r="F94" s="40"/>
-      <c r="G94" s="160"/>
-      <c r="H94" s="161"/>
-      <c r="I94" s="161"/>
-      <c r="J94" s="162"/>
+      <c r="G94" s="159"/>
+      <c r="H94" s="160"/>
+      <c r="I94" s="160"/>
+      <c r="J94" s="161"/>
       <c r="K94" s="81"/>
       <c r="L94" s="81"/>
       <c r="M94" s="74"/>
@@ -11812,11 +11979,79 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="94">
-    <mergeCell ref="G88:J88"/>
-    <mergeCell ref="G89:J89"/>
-    <mergeCell ref="G90:J90"/>
-    <mergeCell ref="G91:J91"/>
-    <mergeCell ref="G92:J92"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="G58:J58"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="G59:J59"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="G54:J54"/>
+    <mergeCell ref="G55:J55"/>
+    <mergeCell ref="G56:J56"/>
+    <mergeCell ref="G57:J57"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="G93:J93"/>
+    <mergeCell ref="G94:J94"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G78:J78"/>
+    <mergeCell ref="G79:J79"/>
+    <mergeCell ref="G80:J80"/>
+    <mergeCell ref="G81:J81"/>
+    <mergeCell ref="G82:J82"/>
+    <mergeCell ref="G83:J83"/>
+    <mergeCell ref="G84:J84"/>
+    <mergeCell ref="G85:J85"/>
+    <mergeCell ref="G86:J86"/>
+    <mergeCell ref="G69:J69"/>
+    <mergeCell ref="G70:J70"/>
+    <mergeCell ref="G71:J71"/>
     <mergeCell ref="G77:J77"/>
     <mergeCell ref="G60:J60"/>
     <mergeCell ref="G87:J87"/>
@@ -11833,79 +12068,11 @@
     <mergeCell ref="G74:J74"/>
     <mergeCell ref="G75:J75"/>
     <mergeCell ref="G76:J76"/>
-    <mergeCell ref="G93:J93"/>
-    <mergeCell ref="G94:J94"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G78:J78"/>
-    <mergeCell ref="G79:J79"/>
-    <mergeCell ref="G80:J80"/>
-    <mergeCell ref="G81:J81"/>
-    <mergeCell ref="G82:J82"/>
-    <mergeCell ref="G83:J83"/>
-    <mergeCell ref="G84:J84"/>
-    <mergeCell ref="G85:J85"/>
-    <mergeCell ref="G86:J86"/>
-    <mergeCell ref="G69:J69"/>
-    <mergeCell ref="G70:J70"/>
-    <mergeCell ref="G71:J71"/>
-    <mergeCell ref="G59:J59"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="G54:J54"/>
-    <mergeCell ref="G55:J55"/>
-    <mergeCell ref="G56:J56"/>
-    <mergeCell ref="G57:J57"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="G58:J58"/>
-    <mergeCell ref="G53:J53"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G88:J88"/>
+    <mergeCell ref="G89:J89"/>
+    <mergeCell ref="G90:J90"/>
+    <mergeCell ref="G91:J91"/>
+    <mergeCell ref="G92:J92"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="M1048467:M1048576 M5:M94"/>
@@ -11934,7 +12101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J104"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A31" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
@@ -11951,10 +12118,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="125"/>
+      <c r="B1" s="126"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -11982,8 +12149,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="125"/>
-      <c r="B2" s="125"/>
+      <c r="A2" s="126"/>
+      <c r="B2" s="126"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -13287,10 +13454,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="125"/>
+      <c r="B1" s="126"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -13318,8 +13485,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="125"/>
-      <c r="B2" s="125"/>
+      <c r="A2" s="126"/>
+      <c r="B2" s="126"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>

--- a/2018/Thao Phuong/01 QL DonVi-ChiNhanh/CIF1122_Xem chi tiet don vi.xlsx
+++ b/2018/Thao Phuong/01 QL DonVi-ChiNhanh/CIF1122_Xem chi tiet don vi.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SVN\THUCTAP\Thao Phuong\01 QL DonVi-ChiNhanh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Phuong\Analyze\Phương\Done\SVN-GitHub\Thao Phuong\01 QL DonVi-ChiNhanh\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" tabRatio="836"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" tabRatio="836" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Update History" sheetId="4" r:id="rId1"/>
@@ -90,7 +90,7 @@
     <definedName name="項目No">#REF!</definedName>
     <definedName name="項目名">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1013,7 +1013,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Phan Thanh Hoàng Vũ:</t>
         </r>
@@ -1022,10 +1022,11 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Tên store đặt sai quy tắc</t>
+Tên store đặt sai quy tắc
+--&gt; Phương: Đã xử lý</t>
         </r>
       </text>
     </comment>
@@ -1037,7 +1038,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Phan Thanh Hoàng Vũ:</t>
         </r>
@@ -1046,7 +1047,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Tên store đặt sai quy tắc</t>
@@ -1449,7 +1450,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="297">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2191,9 +2192,6 @@
     <t>BtnEdit</t>
   </si>
   <si>
-    <t>BtnDelete</t>
-  </si>
-  <si>
     <t>Button</t>
   </si>
   <si>
@@ -2294,7 +2292,80 @@
     <t>ID Store</t>
   </si>
   <si>
-    <t>EXEC CIP11201 (
+    <t>Load  dữ liệu màn hình CIF1120</t>
+  </si>
+  <si>
+    <t>Load màn hình [Danh mục đơn vị]</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>Cho phép xem thông tin chi tiết 1 đơn vị tổ chức.</t>
+  </si>
+  <si>
+    <t>Kiểm tra phân quyền theo mã Form, mã người dùng (UserID)</t>
+  </si>
+  <si>
+    <t>Form có 5 tab thông tin mặc định:</t>
+  </si>
+  <si>
+    <t>- Tab [Hệ thống]</t>
+  </si>
+  <si>
+    <t>- Tab [Thông tin đại lý thuế]</t>
+  </si>
+  <si>
+    <t>- Tab [Thông tin nộp thuế]</t>
+  </si>
+  <si>
+    <t>- Tab [Thông tin đơn vị]</t>
+  </si>
+  <si>
+    <t>- Tab [Thông tin chung]</t>
+  </si>
+  <si>
+    <t>Thực thi @SQL002 đổ dữ liệu cho tab [Hệ thống] ở form CIF1121</t>
+  </si>
+  <si>
+    <t>Thực thi @SQL001 đổ dữ liệu tương ứng cho các tab [Thông tin đơn vị], [Thông tin chung], [Thông tin nộp thuế], [Thông tin đại lý thuế] ở form CIF1121</t>
+  </si>
+  <si>
+    <t>- Sự kiện chọn button [Sửa đơn vị]:</t>
+  </si>
+  <si>
+    <t>SELECT TOP 1   CreateDate, LastModifyUserID, LastModifyDate, CreateUserID 
+FROM AT1101
+WHERE DivisionID=@DivisionID 
+order by LastModifyDate DESC,CreateDate ASC</t>
+  </si>
+  <si>
+    <t>Click BtnEdit:
+Truyền tham số @DivisionID để gọi form CIF1121</t>
+  </si>
+  <si>
+    <t>+ Truyền tham số @DivisionID để gọi form CIF1121</t>
+  </si>
+  <si>
+    <t>+ Nhận tham số @DivisionID từ form CIF1121 truyền vào @SQL001 và @SQL002 để load lại dữ liệu các tab tương ứng.</t>
+  </si>
+  <si>
+    <t>- Luồng 1: Luồng xử lý Sự kiện chọn button [Xoá đơn vị]:</t>
+  </si>
+  <si>
+    <t>Thực thi luồng 1</t>
+  </si>
+  <si>
+    <t>4.10</t>
+  </si>
+  <si>
+    <t>7.10</t>
+  </si>
+  <si>
+    <t>EXEC CIP1120 (
 @DivisionID VARCHAR(50),  
 @DivisionIDList NVARCHAR(2000), 
 @DivisionName nvarchar(250),
@@ -2308,104 +2379,35 @@
 @PageSize INT)</t>
   </si>
   <si>
-    <t>Load  dữ liệu màn hình CIF1120</t>
-  </si>
-  <si>
-    <t>Load màn hình [Danh mục đơn vị]</t>
-  </si>
-  <si>
-    <t>Delete</t>
-  </si>
-  <si>
-    <t>Click</t>
-  </si>
-  <si>
-    <t>Cho phép xem thông tin chi tiết 1 đơn vị tổ chức.</t>
-  </si>
-  <si>
-    <t>Kiểm tra phân quyền theo mã Form, mã người dùng (UserID)</t>
-  </si>
-  <si>
-    <t>Form có 5 tab thông tin mặc định:</t>
-  </si>
-  <si>
-    <t>- Tab [Hệ thống]</t>
-  </si>
-  <si>
-    <t>- Tab [Thông tin đại lý thuế]</t>
-  </si>
-  <si>
-    <t>- Tab [Thông tin nộp thuế]</t>
-  </si>
-  <si>
-    <t>- Tab [Thông tin đơn vị]</t>
-  </si>
-  <si>
-    <t>- Tab [Thông tin chung]</t>
-  </si>
-  <si>
-    <t>Thực thi @SQL002 đổ dữ liệu cho tab [Hệ thống] ở form CIF1121</t>
-  </si>
-  <si>
-    <t>Thực thi @SQL001 đổ dữ liệu tương ứng cho các tab [Thông tin đơn vị], [Thông tin chung], [Thông tin nộp thuế], [Thông tin đại lý thuế] ở form CIF1121</t>
-  </si>
-  <si>
-    <t>- Sự kiện chọn button [Sửa đơn vị]:</t>
-  </si>
-  <si>
-    <t>SELECT TOP 1   CreateDate, LastModifyUserID, LastModifyDate, CreateUserID 
-FROM AT1101
-WHERE DivisionID=@DivisionID 
-order by LastModifyDate DESC,CreateDate ASC</t>
-  </si>
-  <si>
-    <t>Click BtnEdit:
-Truyền tham số @DivisionID để gọi form CIF1121</t>
-  </si>
-  <si>
-    <t>+ Truyền tham số @DivisionID để gọi form CIF1121</t>
-  </si>
-  <si>
-    <t>+ Nhận tham số @DivisionID từ form CIF1121 truyền vào @SQL001 và @SQL002 để load lại dữ liệu các tab tương ứng.</t>
-  </si>
-  <si>
-    <t>- Luồng 1: Luồng xử lý Sự kiện chọn button [Xoá đơn vị]:</t>
-  </si>
-  <si>
-    <t>Thực thi luồng 1</t>
-  </si>
-  <si>
-    <t>EXEC CIP11202 (
+    <t>EXEC CIP1121 (
  @DivisionID varchar(50),
  @DivisionIDList NVARCHAR(MAX),
+ @TableID NVARCHAR(MAX),
  @UserID Varchar(50))</t>
   </si>
   <si>
     <t>@DivisionID
 @DivisionIDList
+@TableID 
 @UserID</t>
   </si>
   <si>
     <t>@DivisionID
 @DivisionIDList
+AT1101
 Biến môi trường</t>
   </si>
   <si>
     <t>Click button [Xoá]
 - Check ParentDivisionID
+- Check ParentDivisionID
 - Check trùng DivisionID đang đăng nhập</t>
-  </si>
-  <si>
-    <t>4.10</t>
-  </si>
-  <si>
-    <t>7.10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
@@ -2534,14 +2536,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -2802,7 +2804,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3083,9 +3085,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3094,7 +3093,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3122,6 +3121,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3194,6 +3196,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3205,14 +3216,8 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3222,9 +3227,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3236,15 +3238,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3295,7 +3288,7 @@
                   <a14:compatExt spid="_x0000_s5142"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3350,7 +3343,7 @@
         <xdr:cNvPr id="2" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3369,7 +3362,7 @@
           <xdr:cNvPr id="3" name="Group 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3388,7 +3381,7 @@
             <xdr:cNvPr id="6" name="Rectangle 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000006000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3488,7 +3481,7 @@
             <xdr:cNvPr id="7" name="Rectangle 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000007000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3547,7 +3540,7 @@
             <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000008000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3588,7 +3581,7 @@
             <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000009000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3628,7 +3621,7 @@
             <xdr:cNvPr id="10" name="Flowchart: Decision 9">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000A000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00000A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3698,7 +3691,7 @@
             <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000B000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00000B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3738,7 +3731,7 @@
             <xdr:cNvPr id="12" name="TextBox 11">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000C000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00000C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3792,7 +3785,7 @@
             <xdr:cNvPr id="13" name="TextBox 12">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000D000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00000D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3847,7 +3840,7 @@
           <xdr:cNvPr id="4" name="Flowchart: Direct Access Storage 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3946,7 +3939,7 @@
           <xdr:cNvPr id="5" name="Elbow Connector 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4106,23 +4099,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4158,23 +4134,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4353,7 +4312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E23" sqref="E23:J23"/>
     </sheetView>
   </sheetViews>
@@ -4370,10 +4329,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="126"/>
+      <c r="B1" s="125"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -4400,8 +4359,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="126"/>
-      <c r="B2" s="126"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -4440,14 +4399,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="127" t="s">
+      <c r="E4" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
     </row>
     <row r="5" spans="1:10" ht="11.25">
       <c r="A5" s="40">
@@ -4462,14 +4421,14 @@
       <c r="D5" s="95" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="128" t="s">
+      <c r="E5" s="127" t="s">
         <v>135</v>
       </c>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="119"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="85">
@@ -4496,12 +4455,12 @@
       </c>
       <c r="C7" s="77"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="122"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="121"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="87">
@@ -4512,12 +4471,12 @@
       </c>
       <c r="C8" s="77"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="125"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="124"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="88">
@@ -4528,12 +4487,12 @@
       </c>
       <c r="C9" s="77"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="122"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="121"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="89">
@@ -4544,12 +4503,12 @@
       </c>
       <c r="C10" s="77"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="122"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="121"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="90">
@@ -4560,12 +4519,12 @@
       </c>
       <c r="C11" s="77"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="122"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="121"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="91">
@@ -4576,12 +4535,12 @@
       </c>
       <c r="C12" s="77"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="122"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="121"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="92">
@@ -4592,12 +4551,12 @@
       </c>
       <c r="C13" s="77"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="122"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="121"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="93">
@@ -4608,12 +4567,12 @@
       </c>
       <c r="C14" s="77"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="122"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="121"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -4624,12 +4583,12 @@
       </c>
       <c r="C15" s="77"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="119"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="128"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="128"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="85">
@@ -4640,12 +4599,12 @@
       </c>
       <c r="C16" s="77"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="119"/>
-      <c r="J16" s="119"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="128"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="86">
@@ -4656,12 +4615,12 @@
       </c>
       <c r="C17" s="77"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="119"/>
-      <c r="G17" s="119"/>
-      <c r="H17" s="119"/>
-      <c r="I17" s="119"/>
-      <c r="J17" s="119"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="128"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="87">
@@ -4672,12 +4631,12 @@
       </c>
       <c r="C18" s="77"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="119"/>
-      <c r="J18" s="119"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="128"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="88">
@@ -4688,12 +4647,12 @@
       </c>
       <c r="C19" s="77"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="119"/>
-      <c r="J19" s="119"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="128"/>
+      <c r="J19" s="128"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="89">
@@ -4704,12 +4663,12 @@
       </c>
       <c r="C20" s="77"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="119"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="128"/>
+      <c r="I20" s="128"/>
+      <c r="J20" s="128"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="90">
@@ -4720,12 +4679,12 @@
       </c>
       <c r="C21" s="77"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="119"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="128"/>
+      <c r="I21" s="128"/>
+      <c r="J21" s="128"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="91">
@@ -4736,12 +4695,12 @@
       </c>
       <c r="C22" s="77"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="119"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="128"/>
+      <c r="J22" s="128"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="92">
@@ -4752,12 +4711,12 @@
       </c>
       <c r="C23" s="77"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="119"/>
-      <c r="H23" s="119"/>
-      <c r="I23" s="119"/>
-      <c r="J23" s="119"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="128"/>
+      <c r="H23" s="128"/>
+      <c r="I23" s="128"/>
+      <c r="J23" s="128"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="93">
@@ -4768,12 +4727,12 @@
       </c>
       <c r="C24" s="77"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="119"/>
-      <c r="J24" s="119"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="128"/>
+      <c r="J24" s="128"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -4784,12 +4743,12 @@
       </c>
       <c r="C25" s="77"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="119"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="128"/>
+      <c r="G25" s="128"/>
+      <c r="H25" s="128"/>
+      <c r="I25" s="128"/>
+      <c r="J25" s="128"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -4800,12 +4759,12 @@
       </c>
       <c r="C26" s="77"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="119"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="128"/>
+      <c r="J26" s="128"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="85">
@@ -4816,12 +4775,12 @@
       </c>
       <c r="C27" s="77"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="119"/>
-      <c r="I27" s="119"/>
-      <c r="J27" s="119"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="128"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="128"/>
+      <c r="J27" s="128"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="86">
@@ -4832,12 +4791,12 @@
       </c>
       <c r="C28" s="77"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="119"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="119"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="128"/>
+      <c r="G28" s="128"/>
+      <c r="H28" s="128"/>
+      <c r="I28" s="128"/>
+      <c r="J28" s="128"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="87">
@@ -4848,12 +4807,12 @@
       </c>
       <c r="C29" s="77"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="119"/>
-      <c r="J29" s="119"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="128"/>
+      <c r="G29" s="128"/>
+      <c r="H29" s="128"/>
+      <c r="I29" s="128"/>
+      <c r="J29" s="128"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="88">
@@ -4864,12 +4823,12 @@
       </c>
       <c r="C30" s="77"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="119"/>
-      <c r="G30" s="119"/>
-      <c r="H30" s="119"/>
-      <c r="I30" s="119"/>
-      <c r="J30" s="119"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="128"/>
+      <c r="G30" s="128"/>
+      <c r="H30" s="128"/>
+      <c r="I30" s="128"/>
+      <c r="J30" s="128"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="89">
@@ -4880,12 +4839,12 @@
       </c>
       <c r="C31" s="77"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="119"/>
-      <c r="F31" s="119"/>
-      <c r="G31" s="119"/>
-      <c r="H31" s="119"/>
-      <c r="I31" s="119"/>
-      <c r="J31" s="119"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="128"/>
+      <c r="G31" s="128"/>
+      <c r="H31" s="128"/>
+      <c r="I31" s="128"/>
+      <c r="J31" s="128"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="90">
@@ -4896,12 +4855,12 @@
       </c>
       <c r="C32" s="77"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="119"/>
-      <c r="I32" s="119"/>
-      <c r="J32" s="119"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="128"/>
+      <c r="H32" s="128"/>
+      <c r="I32" s="128"/>
+      <c r="J32" s="128"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="91">
@@ -4912,12 +4871,12 @@
       </c>
       <c r="C33" s="77"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="119"/>
-      <c r="F33" s="119"/>
-      <c r="G33" s="119"/>
-      <c r="H33" s="119"/>
-      <c r="I33" s="119"/>
-      <c r="J33" s="119"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="128"/>
+      <c r="G33" s="128"/>
+      <c r="H33" s="128"/>
+      <c r="I33" s="128"/>
+      <c r="J33" s="128"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="92">
@@ -4928,12 +4887,12 @@
       </c>
       <c r="C34" s="77"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="119"/>
-      <c r="F34" s="119"/>
-      <c r="G34" s="119"/>
-      <c r="H34" s="119"/>
-      <c r="I34" s="119"/>
-      <c r="J34" s="119"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="128"/>
+      <c r="G34" s="128"/>
+      <c r="H34" s="128"/>
+      <c r="I34" s="128"/>
+      <c r="J34" s="128"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="93">
@@ -4944,12 +4903,12 @@
       </c>
       <c r="C35" s="77"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="119"/>
-      <c r="F35" s="119"/>
-      <c r="G35" s="119"/>
-      <c r="H35" s="119"/>
-      <c r="I35" s="119"/>
-      <c r="J35" s="119"/>
+      <c r="E35" s="128"/>
+      <c r="F35" s="128"/>
+      <c r="G35" s="128"/>
+      <c r="H35" s="128"/>
+      <c r="I35" s="128"/>
+      <c r="J35" s="128"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -4960,12 +4919,12 @@
       </c>
       <c r="C36" s="77"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="119"/>
-      <c r="F36" s="119"/>
-      <c r="G36" s="119"/>
-      <c r="H36" s="119"/>
-      <c r="I36" s="119"/>
-      <c r="J36" s="119"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="128"/>
+      <c r="G36" s="128"/>
+      <c r="H36" s="128"/>
+      <c r="I36" s="128"/>
+      <c r="J36" s="128"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="85">
@@ -4976,12 +4935,12 @@
       </c>
       <c r="C37" s="77"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="119"/>
-      <c r="F37" s="119"/>
-      <c r="G37" s="119"/>
-      <c r="H37" s="119"/>
-      <c r="I37" s="119"/>
-      <c r="J37" s="119"/>
+      <c r="E37" s="128"/>
+      <c r="F37" s="128"/>
+      <c r="G37" s="128"/>
+      <c r="H37" s="128"/>
+      <c r="I37" s="128"/>
+      <c r="J37" s="128"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="86">
@@ -4992,12 +4951,12 @@
       </c>
       <c r="C38" s="77"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="119"/>
-      <c r="F38" s="119"/>
-      <c r="G38" s="119"/>
-      <c r="H38" s="119"/>
-      <c r="I38" s="119"/>
-      <c r="J38" s="119"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="128"/>
+      <c r="G38" s="128"/>
+      <c r="H38" s="128"/>
+      <c r="I38" s="128"/>
+      <c r="J38" s="128"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="87">
@@ -5008,12 +4967,12 @@
       </c>
       <c r="C39" s="77"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="119"/>
-      <c r="F39" s="119"/>
-      <c r="G39" s="119"/>
-      <c r="H39" s="119"/>
-      <c r="I39" s="119"/>
-      <c r="J39" s="119"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="128"/>
+      <c r="G39" s="128"/>
+      <c r="H39" s="128"/>
+      <c r="I39" s="128"/>
+      <c r="J39" s="128"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="88">
@@ -5024,12 +4983,12 @@
       </c>
       <c r="C40" s="77"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="119"/>
-      <c r="F40" s="119"/>
-      <c r="G40" s="119"/>
-      <c r="H40" s="119"/>
-      <c r="I40" s="119"/>
-      <c r="J40" s="119"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="128"/>
+      <c r="G40" s="128"/>
+      <c r="H40" s="128"/>
+      <c r="I40" s="128"/>
+      <c r="J40" s="128"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="89">
@@ -5040,12 +4999,12 @@
       </c>
       <c r="C41" s="77"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="119"/>
-      <c r="F41" s="119"/>
-      <c r="G41" s="119"/>
-      <c r="H41" s="119"/>
-      <c r="I41" s="119"/>
-      <c r="J41" s="119"/>
+      <c r="E41" s="128"/>
+      <c r="F41" s="128"/>
+      <c r="G41" s="128"/>
+      <c r="H41" s="128"/>
+      <c r="I41" s="128"/>
+      <c r="J41" s="128"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="90">
@@ -5056,23 +5015,32 @@
       </c>
       <c r="C42" s="77"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="119"/>
-      <c r="F42" s="119"/>
-      <c r="G42" s="119"/>
-      <c r="H42" s="119"/>
-      <c r="I42" s="119"/>
-      <c r="J42" s="119"/>
+      <c r="E42" s="128"/>
+      <c r="F42" s="128"/>
+      <c r="G42" s="128"/>
+      <c r="H42" s="128"/>
+      <c r="I42" s="128"/>
+      <c r="J42" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -5088,23 +5056,14 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -5148,10 +5107,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="126"/>
+      <c r="B1" s="125"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5182,8 +5141,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="126"/>
-      <c r="B2" s="126"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5783,12 +5742,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
       <c r="E1" s="30" t="s">
         <v>1</v>
       </c>
@@ -5821,10 +5780,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="126"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
       <c r="E2" s="30" t="s">
         <v>2</v>
       </c>
@@ -5953,7 +5912,7 @@
       </c>
       <c r="F6" s="83"/>
       <c r="G6" s="40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H6" s="40"/>
       <c r="I6" s="62"/>
@@ -5978,11 +5937,11 @@
         <v>158</v>
       </c>
       <c r="E7" s="83" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F7" s="83"/>
       <c r="G7" s="40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H7" s="40"/>
       <c r="I7" s="62"/>
@@ -6007,7 +5966,7 @@
         <v>139</v>
       </c>
       <c r="E8" s="83" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F8" s="83"/>
       <c r="G8" s="40" t="s">
@@ -6042,15 +6001,15 @@
         <v>194</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H9" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I9" s="62"/>
       <c r="J9" s="62"/>
       <c r="K9" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L9" s="83"/>
       <c r="M9" s="83"/>
@@ -6077,15 +6036,15 @@
         <v>195</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H10" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I10" s="62"/>
       <c r="J10" s="62"/>
       <c r="K10" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L10" s="69"/>
       <c r="M10" s="69"/>
@@ -6112,15 +6071,15 @@
         <v>196</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I11" s="62"/>
       <c r="J11" s="62"/>
       <c r="K11" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L11" s="80"/>
       <c r="M11" s="69"/>
@@ -6147,15 +6106,15 @@
         <v>197</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H12" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I12" s="62"/>
       <c r="J12" s="62"/>
       <c r="K12" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L12" s="84"/>
       <c r="M12" s="69"/>
@@ -6171,10 +6130,10 @@
       <c r="D13" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="E13" s="118" t="s">
+      <c r="E13" s="117" t="s">
         <v>200</v>
       </c>
-      <c r="F13" s="118" t="s">
+      <c r="F13" s="117" t="s">
         <v>200</v>
       </c>
       <c r="G13" s="40"/>
@@ -6182,10 +6141,10 @@
       <c r="I13" s="62"/>
       <c r="J13" s="62"/>
       <c r="K13" s="40"/>
-      <c r="L13" s="118"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="118"/>
-      <c r="O13" s="118"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="117"/>
+      <c r="N13" s="117"/>
+      <c r="O13" s="117"/>
     </row>
     <row r="14" spans="1:15" s="34" customFormat="1" ht="11.25">
       <c r="A14" s="33"/>
@@ -6196,10 +6155,10 @@
       <c r="D14" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="E14" s="118" t="s">
+      <c r="E14" s="117" t="s">
         <v>201</v>
       </c>
-      <c r="F14" s="118" t="s">
+      <c r="F14" s="117" t="s">
         <v>201</v>
       </c>
       <c r="G14" s="40"/>
@@ -6207,10 +6166,10 @@
       <c r="I14" s="62"/>
       <c r="J14" s="62"/>
       <c r="K14" s="40"/>
-      <c r="L14" s="118"/>
-      <c r="M14" s="118"/>
-      <c r="N14" s="118"/>
-      <c r="O14" s="118"/>
+      <c r="L14" s="117"/>
+      <c r="M14" s="117"/>
+      <c r="N14" s="117"/>
+      <c r="O14" s="117"/>
     </row>
     <row r="15" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -6232,15 +6191,15 @@
         <v>198</v>
       </c>
       <c r="G15" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I15" s="62"/>
       <c r="J15" s="62"/>
       <c r="K15" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L15" s="84"/>
       <c r="M15" s="69"/>
@@ -6267,15 +6226,15 @@
         <v>145</v>
       </c>
       <c r="G16" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I16" s="62"/>
       <c r="J16" s="62"/>
       <c r="K16" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L16" s="62"/>
       <c r="M16" s="69"/>
@@ -6302,15 +6261,15 @@
         <v>146</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H17" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I17" s="62"/>
       <c r="J17" s="62"/>
       <c r="K17" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L17" s="62"/>
       <c r="M17" s="69"/>
@@ -6325,7 +6284,7 @@
         <v>136</v>
       </c>
       <c r="C18" s="111" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D18" s="59" t="s">
         <v>150</v>
@@ -6337,15 +6296,15 @@
         <v>202</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H18" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I18" s="40"/>
       <c r="J18" s="40"/>
       <c r="K18" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L18" s="40"/>
       <c r="M18" s="40"/>
@@ -6372,15 +6331,15 @@
         <v>203</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H19" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I19" s="40"/>
       <c r="J19" s="40"/>
       <c r="K19" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L19" s="40"/>
       <c r="M19" s="40"/>
@@ -6407,15 +6366,15 @@
         <v>204</v>
       </c>
       <c r="G20" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H20" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I20" s="40"/>
       <c r="J20" s="40"/>
       <c r="K20" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L20" s="40"/>
       <c r="M20" s="40"/>
@@ -6442,15 +6401,15 @@
         <v>199</v>
       </c>
       <c r="G21" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H21" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I21" s="40"/>
       <c r="J21" s="40"/>
       <c r="K21" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L21" s="40"/>
       <c r="M21" s="40"/>
@@ -6477,15 +6436,15 @@
         <v>205</v>
       </c>
       <c r="G22" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H22" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I22" s="40"/>
       <c r="J22" s="40"/>
       <c r="K22" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L22" s="40"/>
       <c r="M22" s="40"/>
@@ -6506,7 +6465,7 @@
         <v>154</v>
       </c>
       <c r="E23" s="81" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F23" s="81"/>
       <c r="G23" s="40" t="s">
@@ -6541,18 +6500,18 @@
         <v>206</v>
       </c>
       <c r="G24" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H24" s="40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I24" s="40"/>
       <c r="J24" s="40"/>
       <c r="K24" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L24" s="40" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M24" s="61"/>
       <c r="N24" s="61"/>
@@ -6578,18 +6537,18 @@
         <v>207</v>
       </c>
       <c r="G25" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H25" s="40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I25" s="40"/>
       <c r="J25" s="61"/>
       <c r="K25" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L25" s="40" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M25" s="61"/>
       <c r="N25" s="61"/>
@@ -6615,15 +6574,15 @@
         <v>208</v>
       </c>
       <c r="G26" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H26" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I26" s="40"/>
       <c r="J26" s="61"/>
       <c r="K26" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L26" s="62"/>
       <c r="M26" s="61"/>
@@ -6650,15 +6609,15 @@
         <v>209</v>
       </c>
       <c r="G27" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H27" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I27" s="40"/>
       <c r="J27" s="61"/>
       <c r="K27" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L27" s="62"/>
       <c r="M27" s="61"/>
@@ -6685,15 +6644,15 @@
         <v>210</v>
       </c>
       <c r="G28" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H28" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I28" s="40"/>
       <c r="J28" s="61"/>
       <c r="K28" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L28" s="62"/>
       <c r="M28" s="61"/>
@@ -6720,15 +6679,15 @@
         <v>211</v>
       </c>
       <c r="G29" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H29" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I29" s="40"/>
       <c r="J29" s="61"/>
       <c r="K29" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L29" s="62"/>
       <c r="M29" s="61"/>
@@ -6755,15 +6714,15 @@
         <v>212</v>
       </c>
       <c r="G30" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H30" s="40" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I30" s="40"/>
       <c r="J30" s="61"/>
       <c r="K30" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L30" s="62"/>
       <c r="M30" s="61"/>
@@ -6790,15 +6749,15 @@
         <v>213</v>
       </c>
       <c r="G31" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H31" s="40" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I31" s="40"/>
       <c r="J31" s="61"/>
       <c r="K31" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L31" s="62"/>
       <c r="M31" s="61"/>
@@ -6825,15 +6784,15 @@
         <v>214</v>
       </c>
       <c r="G32" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H32" s="40" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I32" s="40"/>
       <c r="J32" s="61"/>
       <c r="K32" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L32" s="62"/>
       <c r="M32" s="61"/>
@@ -6854,7 +6813,7 @@
         <v>169</v>
       </c>
       <c r="E33" s="69" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F33" s="40"/>
       <c r="G33" s="40" t="s">
@@ -6889,15 +6848,15 @@
         <v>215</v>
       </c>
       <c r="G34" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H34" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I34" s="40"/>
       <c r="J34" s="61"/>
       <c r="K34" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L34" s="62"/>
       <c r="M34" s="61"/>
@@ -6924,20 +6883,20 @@
         <v>216</v>
       </c>
       <c r="G35" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H35" s="40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I35" s="40">
         <v>4</v>
       </c>
       <c r="J35" s="61"/>
       <c r="K35" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L35" s="62" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M35" s="61"/>
       <c r="N35" s="61"/>
@@ -6963,15 +6922,15 @@
         <v>217</v>
       </c>
       <c r="G36" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H36" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I36" s="40"/>
       <c r="J36" s="61"/>
       <c r="K36" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L36" s="62"/>
       <c r="M36" s="61"/>
@@ -6998,15 +6957,15 @@
         <v>218</v>
       </c>
       <c r="G37" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H37" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I37" s="40"/>
       <c r="J37" s="61"/>
       <c r="K37" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L37" s="62"/>
       <c r="M37" s="61"/>
@@ -7033,15 +6992,15 @@
         <v>219</v>
       </c>
       <c r="G38" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H38" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I38" s="40"/>
       <c r="J38" s="61"/>
       <c r="K38" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L38" s="62"/>
       <c r="M38" s="61"/>
@@ -7068,15 +7027,15 @@
         <v>220</v>
       </c>
       <c r="G39" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H39" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I39" s="40"/>
       <c r="J39" s="61"/>
       <c r="K39" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L39" s="62"/>
       <c r="M39" s="61"/>
@@ -7103,15 +7062,15 @@
         <v>221</v>
       </c>
       <c r="G40" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H40" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I40" s="40"/>
       <c r="J40" s="61"/>
       <c r="K40" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L40" s="62"/>
       <c r="M40" s="61"/>
@@ -7132,19 +7091,19 @@
         <v>177</v>
       </c>
       <c r="E41" s="69" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F41" s="40"/>
       <c r="G41" s="40" t="s">
         <v>193</v>
       </c>
       <c r="H41" s="40" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I41" s="40"/>
       <c r="J41" s="61"/>
       <c r="K41" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L41" s="62"/>
       <c r="M41" s="61"/>
@@ -7171,15 +7130,15 @@
         <v>222</v>
       </c>
       <c r="G42" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H42" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I42" s="40"/>
       <c r="J42" s="61"/>
       <c r="K42" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L42" s="62"/>
       <c r="M42" s="61"/>
@@ -7206,15 +7165,15 @@
         <v>223</v>
       </c>
       <c r="G43" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H43" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I43" s="40"/>
       <c r="J43" s="61"/>
       <c r="K43" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L43" s="62"/>
       <c r="M43" s="61"/>
@@ -7241,15 +7200,15 @@
         <v>224</v>
       </c>
       <c r="G44" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H44" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I44" s="40"/>
       <c r="J44" s="61"/>
       <c r="K44" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L44" s="62"/>
       <c r="M44" s="61"/>
@@ -7276,15 +7235,15 @@
         <v>225</v>
       </c>
       <c r="G45" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H45" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I45" s="40"/>
       <c r="J45" s="61"/>
       <c r="K45" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L45" s="62"/>
       <c r="M45" s="61"/>
@@ -7311,15 +7270,15 @@
         <v>226</v>
       </c>
       <c r="G46" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H46" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I46" s="40"/>
       <c r="J46" s="61"/>
       <c r="K46" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L46" s="62"/>
       <c r="M46" s="61"/>
@@ -7346,15 +7305,15 @@
         <v>227</v>
       </c>
       <c r="G47" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H47" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I47" s="40"/>
       <c r="J47" s="61"/>
       <c r="K47" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L47" s="62"/>
       <c r="M47" s="61"/>
@@ -7381,15 +7340,15 @@
         <v>228</v>
       </c>
       <c r="G48" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H48" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I48" s="40"/>
       <c r="J48" s="61"/>
       <c r="K48" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L48" s="62"/>
       <c r="M48" s="61"/>
@@ -7416,15 +7375,15 @@
         <v>229</v>
       </c>
       <c r="G49" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H49" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I49" s="40"/>
       <c r="J49" s="61"/>
       <c r="K49" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L49" s="62"/>
       <c r="M49" s="61"/>
@@ -7451,15 +7410,15 @@
         <v>230</v>
       </c>
       <c r="G50" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H50" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I50" s="40"/>
       <c r="J50" s="61"/>
       <c r="K50" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L50" s="62"/>
       <c r="M50" s="61"/>
@@ -7474,7 +7433,7 @@
         <v>136</v>
       </c>
       <c r="C51" s="111" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D51" s="112" t="s">
         <v>185</v>
@@ -7486,18 +7445,18 @@
         <v>231</v>
       </c>
       <c r="G51" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H51" s="40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I51" s="40"/>
       <c r="J51" s="61"/>
       <c r="K51" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L51" s="40" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M51" s="61"/>
       <c r="N51" s="61"/>
@@ -7523,15 +7482,15 @@
         <v>232</v>
       </c>
       <c r="G52" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H52" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I52" s="40"/>
       <c r="J52" s="61"/>
       <c r="K52" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L52" s="62"/>
       <c r="M52" s="61"/>
@@ -7558,15 +7517,15 @@
         <v>233</v>
       </c>
       <c r="G53" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H53" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I53" s="40"/>
       <c r="J53" s="61"/>
       <c r="K53" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L53" s="62"/>
       <c r="M53" s="61"/>
@@ -7587,7 +7546,7 @@
         <v>188</v>
       </c>
       <c r="E54" s="112" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F54" s="40"/>
       <c r="G54" s="40" t="s">
@@ -7622,15 +7581,15 @@
         <v>234</v>
       </c>
       <c r="G55" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H55" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I55" s="40"/>
       <c r="J55" s="61"/>
       <c r="K55" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L55" s="62"/>
       <c r="M55" s="61"/>
@@ -7657,18 +7616,18 @@
         <v>235</v>
       </c>
       <c r="G56" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H56" s="40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I56" s="40"/>
       <c r="J56" s="61"/>
       <c r="K56" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L56" s="40" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M56" s="61"/>
       <c r="N56" s="61"/>
@@ -7694,15 +7653,15 @@
         <v>236</v>
       </c>
       <c r="G57" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H57" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I57" s="40"/>
       <c r="J57" s="61"/>
       <c r="K57" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L57" s="62"/>
       <c r="M57" s="61"/>
@@ -7729,18 +7688,18 @@
         <v>237</v>
       </c>
       <c r="G58" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H58" s="40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I58" s="40"/>
       <c r="J58" s="61"/>
       <c r="K58" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L58" s="40" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M58" s="61"/>
       <c r="N58" s="61"/>
@@ -8772,7 +8731,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="157" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="109"/>
@@ -8808,7 +8767,7 @@
       <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="155"/>
+      <c r="A2" s="158"/>
       <c r="B2" s="110"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
@@ -8857,15 +8816,15 @@
       <c r="E4" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="126" t="s">
+      <c r="F4" s="125" t="s">
         <v>129</v>
       </c>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126" t="s">
+      <c r="G4" s="125"/>
+      <c r="H4" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
     </row>
     <row r="5" spans="1:12" s="34" customFormat="1" ht="28.5" customHeight="1">
       <c r="A5" s="33">
@@ -8875,21 +8834,21 @@
         <v>136</v>
       </c>
       <c r="C5" s="111" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="F5" s="152" t="s">
-        <v>287</v>
-      </c>
-      <c r="G5" s="153"/>
-      <c r="H5" s="156" t="s">
-        <v>256</v>
-      </c>
-      <c r="I5" s="157"/>
-      <c r="J5" s="158"/>
+        <v>245</v>
+      </c>
+      <c r="F5" s="155" t="s">
+        <v>285</v>
+      </c>
+      <c r="G5" s="156"/>
+      <c r="H5" s="152" t="s">
+        <v>255</v>
+      </c>
+      <c r="I5" s="153"/>
+      <c r="J5" s="154"/>
     </row>
     <row r="6" spans="1:12" s="34" customFormat="1" ht="37.5" customHeight="1">
       <c r="A6" s="33">
@@ -8899,21 +8858,21 @@
         <v>136</v>
       </c>
       <c r="C6" s="111" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="F6" s="152" t="s">
-        <v>255</v>
-      </c>
-      <c r="G6" s="153"/>
-      <c r="H6" s="156" t="s">
-        <v>253</v>
-      </c>
-      <c r="I6" s="157"/>
-      <c r="J6" s="158"/>
+        <v>245</v>
+      </c>
+      <c r="F6" s="155" t="s">
+        <v>254</v>
+      </c>
+      <c r="G6" s="156"/>
+      <c r="H6" s="152" t="s">
+        <v>252</v>
+      </c>
+      <c r="I6" s="153"/>
+      <c r="J6" s="154"/>
     </row>
     <row r="7" spans="1:12" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -8923,11 +8882,11 @@
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="32"/>
-      <c r="F7" s="152"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="157"/>
-      <c r="J7" s="158"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="156"/>
+      <c r="H7" s="152"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -8937,11 +8896,11 @@
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="32"/>
-      <c r="F8" s="152"/>
-      <c r="G8" s="153"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="157"/>
-      <c r="J8" s="158"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="156"/>
+      <c r="H8" s="152"/>
+      <c r="I8" s="153"/>
+      <c r="J8" s="154"/>
     </row>
     <row r="9" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -8951,11 +8910,11 @@
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="32"/>
-      <c r="F9" s="152"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="156"/>
-      <c r="I9" s="157"/>
-      <c r="J9" s="158"/>
+      <c r="F9" s="155"/>
+      <c r="G9" s="156"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="154"/>
     </row>
     <row r="10" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -8965,11 +8924,11 @@
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="32"/>
-      <c r="F10" s="152"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="157"/>
-      <c r="J10" s="158"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="156"/>
+      <c r="H10" s="152"/>
+      <c r="I10" s="153"/>
+      <c r="J10" s="154"/>
     </row>
     <row r="11" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -8979,11 +8938,11 @@
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="152"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="157"/>
-      <c r="J11" s="158"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="156"/>
+      <c r="H11" s="152"/>
+      <c r="I11" s="153"/>
+      <c r="J11" s="154"/>
     </row>
     <row r="12" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -8993,11 +8952,11 @@
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="152"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="156"/>
-      <c r="I12" s="157"/>
-      <c r="J12" s="158"/>
+      <c r="F12" s="155"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="152"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="154"/>
     </row>
     <row r="13" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -9007,11 +8966,11 @@
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="153"/>
-      <c r="H13" s="156"/>
-      <c r="I13" s="157"/>
-      <c r="J13" s="158"/>
+      <c r="F13" s="155"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="152"/>
+      <c r="I13" s="153"/>
+      <c r="J13" s="154"/>
     </row>
     <row r="14" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -9021,11 +8980,11 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="153"/>
-      <c r="H14" s="156"/>
-      <c r="I14" s="157"/>
-      <c r="J14" s="158"/>
+      <c r="F14" s="155"/>
+      <c r="G14" s="156"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="154"/>
     </row>
     <row r="15" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -9035,11 +8994,11 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="152"/>
-      <c r="G15" s="153"/>
-      <c r="H15" s="156"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="158"/>
+      <c r="F15" s="155"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="153"/>
+      <c r="J15" s="154"/>
     </row>
     <row r="16" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -9049,11 +9008,11 @@
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="152"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="156"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="158"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="156"/>
+      <c r="H16" s="152"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="154"/>
     </row>
     <row r="17" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -9063,11 +9022,11 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="152"/>
-      <c r="G17" s="153"/>
-      <c r="H17" s="156"/>
-      <c r="I17" s="157"/>
-      <c r="J17" s="158"/>
+      <c r="F17" s="155"/>
+      <c r="G17" s="156"/>
+      <c r="H17" s="152"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="154"/>
     </row>
     <row r="18" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -9077,11 +9036,11 @@
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="32"/>
-      <c r="F18" s="152"/>
-      <c r="G18" s="153"/>
-      <c r="H18" s="156"/>
-      <c r="I18" s="157"/>
-      <c r="J18" s="158"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="156"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="154"/>
     </row>
     <row r="19" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -9091,11 +9050,11 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="32"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="156"/>
-      <c r="I19" s="157"/>
-      <c r="J19" s="158"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="156"/>
+      <c r="H19" s="152"/>
+      <c r="I19" s="153"/>
+      <c r="J19" s="154"/>
     </row>
     <row r="20" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -9105,11 +9064,11 @@
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="152"/>
-      <c r="G20" s="153"/>
-      <c r="H20" s="156"/>
-      <c r="I20" s="157"/>
-      <c r="J20" s="158"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="156"/>
+      <c r="H20" s="152"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="154"/>
     </row>
     <row r="21" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -9119,11 +9078,11 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="152"/>
-      <c r="G21" s="153"/>
-      <c r="H21" s="156"/>
-      <c r="I21" s="157"/>
-      <c r="J21" s="158"/>
+      <c r="F21" s="155"/>
+      <c r="G21" s="156"/>
+      <c r="H21" s="152"/>
+      <c r="I21" s="153"/>
+      <c r="J21" s="154"/>
     </row>
     <row r="22" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -9133,11 +9092,11 @@
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="32"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="157"/>
-      <c r="J22" s="158"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="23" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -9147,11 +9106,11 @@
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="32"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="122"/>
-      <c r="H23" s="156"/>
-      <c r="I23" s="157"/>
-      <c r="J23" s="158"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="153"/>
+      <c r="J23" s="154"/>
     </row>
     <row r="24" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -9161,11 +9120,11 @@
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="32"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="122"/>
-      <c r="H24" s="156"/>
-      <c r="I24" s="157"/>
-      <c r="J24" s="158"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="121"/>
+      <c r="H24" s="152"/>
+      <c r="I24" s="153"/>
+      <c r="J24" s="154"/>
     </row>
     <row r="25" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -9175,11 +9134,11 @@
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="32"/>
-      <c r="F25" s="120"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="156"/>
-      <c r="I25" s="157"/>
-      <c r="J25" s="158"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="121"/>
+      <c r="H25" s="152"/>
+      <c r="I25" s="153"/>
+      <c r="J25" s="154"/>
     </row>
     <row r="26" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -9189,11 +9148,11 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="32"/>
-      <c r="F26" s="120"/>
-      <c r="G26" s="122"/>
-      <c r="H26" s="156"/>
-      <c r="I26" s="157"/>
-      <c r="J26" s="158"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="153"/>
+      <c r="J26" s="154"/>
     </row>
     <row r="27" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -9203,11 +9162,11 @@
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="32"/>
-      <c r="F27" s="120"/>
-      <c r="G27" s="122"/>
-      <c r="H27" s="156"/>
-      <c r="I27" s="157"/>
-      <c r="J27" s="158"/>
+      <c r="F27" s="119"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="153"/>
+      <c r="J27" s="154"/>
     </row>
     <row r="28" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -9217,11 +9176,11 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="32"/>
-      <c r="F28" s="120"/>
-      <c r="G28" s="122"/>
-      <c r="H28" s="156"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="158"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="152"/>
+      <c r="I28" s="153"/>
+      <c r="J28" s="154"/>
     </row>
     <row r="29" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -9231,11 +9190,11 @@
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="32"/>
-      <c r="F29" s="120"/>
-      <c r="G29" s="122"/>
-      <c r="H29" s="156"/>
-      <c r="I29" s="157"/>
-      <c r="J29" s="158"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="121"/>
+      <c r="H29" s="152"/>
+      <c r="I29" s="153"/>
+      <c r="J29" s="154"/>
     </row>
     <row r="30" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -9245,11 +9204,11 @@
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="32"/>
-      <c r="F30" s="120"/>
-      <c r="G30" s="122"/>
-      <c r="H30" s="156"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="158"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="121"/>
+      <c r="H30" s="152"/>
+      <c r="I30" s="153"/>
+      <c r="J30" s="154"/>
     </row>
     <row r="31" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -9259,11 +9218,11 @@
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="32"/>
-      <c r="F31" s="120"/>
-      <c r="G31" s="122"/>
-      <c r="H31" s="156"/>
-      <c r="I31" s="157"/>
-      <c r="J31" s="158"/>
+      <c r="F31" s="119"/>
+      <c r="G31" s="121"/>
+      <c r="H31" s="152"/>
+      <c r="I31" s="153"/>
+      <c r="J31" s="154"/>
     </row>
     <row r="32" spans="1:18" ht="11.25">
       <c r="A32" s="33">
@@ -9273,11 +9232,11 @@
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="32"/>
-      <c r="F32" s="120"/>
-      <c r="G32" s="122"/>
-      <c r="H32" s="156"/>
-      <c r="I32" s="157"/>
-      <c r="J32" s="158"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="121"/>
+      <c r="H32" s="152"/>
+      <c r="I32" s="153"/>
+      <c r="J32" s="154"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
@@ -9294,11 +9253,11 @@
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="32"/>
-      <c r="F33" s="120"/>
-      <c r="G33" s="122"/>
-      <c r="H33" s="156"/>
-      <c r="I33" s="157"/>
-      <c r="J33" s="158"/>
+      <c r="F33" s="119"/>
+      <c r="G33" s="121"/>
+      <c r="H33" s="152"/>
+      <c r="I33" s="153"/>
+      <c r="J33" s="154"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
@@ -9315,11 +9274,11 @@
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="32"/>
-      <c r="F34" s="120"/>
-      <c r="G34" s="122"/>
-      <c r="H34" s="156"/>
-      <c r="I34" s="157"/>
-      <c r="J34" s="158"/>
+      <c r="F34" s="119"/>
+      <c r="G34" s="121"/>
+      <c r="H34" s="152"/>
+      <c r="I34" s="153"/>
+      <c r="J34" s="154"/>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
@@ -9336,11 +9295,11 @@
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="32"/>
-      <c r="F35" s="120"/>
-      <c r="G35" s="122"/>
-      <c r="H35" s="156"/>
-      <c r="I35" s="157"/>
-      <c r="J35" s="158"/>
+      <c r="F35" s="119"/>
+      <c r="G35" s="121"/>
+      <c r="H35" s="152"/>
+      <c r="I35" s="153"/>
+      <c r="J35" s="154"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
@@ -9357,11 +9316,11 @@
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="32"/>
-      <c r="F36" s="120"/>
-      <c r="G36" s="122"/>
-      <c r="H36" s="156"/>
-      <c r="I36" s="157"/>
-      <c r="J36" s="158"/>
+      <c r="F36" s="119"/>
+      <c r="G36" s="121"/>
+      <c r="H36" s="152"/>
+      <c r="I36" s="153"/>
+      <c r="J36" s="154"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -9378,11 +9337,11 @@
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
       <c r="E37" s="32"/>
-      <c r="F37" s="120"/>
-      <c r="G37" s="122"/>
-      <c r="H37" s="156"/>
-      <c r="I37" s="157"/>
-      <c r="J37" s="158"/>
+      <c r="F37" s="119"/>
+      <c r="G37" s="121"/>
+      <c r="H37" s="152"/>
+      <c r="I37" s="153"/>
+      <c r="J37" s="154"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
@@ -9399,11 +9358,11 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="32"/>
-      <c r="F38" s="120"/>
-      <c r="G38" s="122"/>
-      <c r="H38" s="156"/>
-      <c r="I38" s="157"/>
-      <c r="J38" s="158"/>
+      <c r="F38" s="119"/>
+      <c r="G38" s="121"/>
+      <c r="H38" s="152"/>
+      <c r="I38" s="153"/>
+      <c r="J38" s="154"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
@@ -9420,11 +9379,11 @@
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="32"/>
-      <c r="F39" s="120"/>
-      <c r="G39" s="122"/>
-      <c r="H39" s="156"/>
-      <c r="I39" s="157"/>
-      <c r="J39" s="158"/>
+      <c r="F39" s="119"/>
+      <c r="G39" s="121"/>
+      <c r="H39" s="152"/>
+      <c r="I39" s="153"/>
+      <c r="J39" s="154"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
@@ -9441,11 +9400,11 @@
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
       <c r="E40" s="32"/>
-      <c r="F40" s="120"/>
-      <c r="G40" s="122"/>
-      <c r="H40" s="156"/>
-      <c r="I40" s="157"/>
-      <c r="J40" s="158"/>
+      <c r="F40" s="119"/>
+      <c r="G40" s="121"/>
+      <c r="H40" s="152"/>
+      <c r="I40" s="153"/>
+      <c r="J40" s="154"/>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
@@ -9462,11 +9421,11 @@
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
       <c r="E41" s="32"/>
-      <c r="F41" s="120"/>
-      <c r="G41" s="122"/>
-      <c r="H41" s="156"/>
-      <c r="I41" s="157"/>
-      <c r="J41" s="158"/>
+      <c r="F41" s="119"/>
+      <c r="G41" s="121"/>
+      <c r="H41" s="152"/>
+      <c r="I41" s="153"/>
+      <c r="J41" s="154"/>
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
@@ -9483,11 +9442,11 @@
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="32"/>
-      <c r="F42" s="120"/>
-      <c r="G42" s="122"/>
-      <c r="H42" s="156"/>
-      <c r="I42" s="157"/>
-      <c r="J42" s="158"/>
+      <c r="F42" s="119"/>
+      <c r="G42" s="121"/>
+      <c r="H42" s="152"/>
+      <c r="I42" s="153"/>
+      <c r="J42" s="154"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
@@ -9504,11 +9463,11 @@
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="32"/>
-      <c r="F43" s="120"/>
-      <c r="G43" s="122"/>
-      <c r="H43" s="156"/>
-      <c r="I43" s="157"/>
-      <c r="J43" s="158"/>
+      <c r="F43" s="119"/>
+      <c r="G43" s="121"/>
+      <c r="H43" s="152"/>
+      <c r="I43" s="153"/>
+      <c r="J43" s="154"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
@@ -9525,11 +9484,11 @@
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="32"/>
-      <c r="F44" s="120"/>
-      <c r="G44" s="122"/>
-      <c r="H44" s="156"/>
-      <c r="I44" s="157"/>
-      <c r="J44" s="158"/>
+      <c r="F44" s="119"/>
+      <c r="G44" s="121"/>
+      <c r="H44" s="152"/>
+      <c r="I44" s="153"/>
+      <c r="J44" s="154"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
@@ -9546,11 +9505,11 @@
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
       <c r="E45" s="32"/>
-      <c r="F45" s="120"/>
-      <c r="G45" s="122"/>
-      <c r="H45" s="156"/>
-      <c r="I45" s="157"/>
-      <c r="J45" s="158"/>
+      <c r="F45" s="119"/>
+      <c r="G45" s="121"/>
+      <c r="H45" s="152"/>
+      <c r="I45" s="153"/>
+      <c r="J45" s="154"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
@@ -9567,11 +9526,11 @@
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
       <c r="E46" s="32"/>
-      <c r="F46" s="120"/>
-      <c r="G46" s="122"/>
-      <c r="H46" s="156"/>
-      <c r="I46" s="157"/>
-      <c r="J46" s="158"/>
+      <c r="F46" s="119"/>
+      <c r="G46" s="121"/>
+      <c r="H46" s="152"/>
+      <c r="I46" s="153"/>
+      <c r="J46" s="154"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
@@ -9588,11 +9547,11 @@
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="32"/>
-      <c r="F47" s="120"/>
-      <c r="G47" s="122"/>
-      <c r="H47" s="156"/>
-      <c r="I47" s="157"/>
-      <c r="J47" s="158"/>
+      <c r="F47" s="119"/>
+      <c r="G47" s="121"/>
+      <c r="H47" s="152"/>
+      <c r="I47" s="153"/>
+      <c r="J47" s="154"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
@@ -9609,11 +9568,11 @@
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
       <c r="E48" s="32"/>
-      <c r="F48" s="120"/>
-      <c r="G48" s="122"/>
-      <c r="H48" s="156"/>
-      <c r="I48" s="157"/>
-      <c r="J48" s="158"/>
+      <c r="F48" s="119"/>
+      <c r="G48" s="121"/>
+      <c r="H48" s="152"/>
+      <c r="I48" s="153"/>
+      <c r="J48" s="154"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
@@ -9630,11 +9589,11 @@
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="32"/>
-      <c r="F49" s="120"/>
-      <c r="G49" s="122"/>
-      <c r="H49" s="156"/>
-      <c r="I49" s="157"/>
-      <c r="J49" s="158"/>
+      <c r="F49" s="119"/>
+      <c r="G49" s="121"/>
+      <c r="H49" s="152"/>
+      <c r="I49" s="153"/>
+      <c r="J49" s="154"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
@@ -9651,11 +9610,11 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="32"/>
-      <c r="F50" s="120"/>
-      <c r="G50" s="122"/>
-      <c r="H50" s="156"/>
-      <c r="I50" s="157"/>
-      <c r="J50" s="158"/>
+      <c r="F50" s="119"/>
+      <c r="G50" s="121"/>
+      <c r="H50" s="152"/>
+      <c r="I50" s="153"/>
+      <c r="J50" s="154"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
@@ -9672,11 +9631,11 @@
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
       <c r="E51" s="32"/>
-      <c r="F51" s="120"/>
-      <c r="G51" s="122"/>
-      <c r="H51" s="156"/>
-      <c r="I51" s="157"/>
-      <c r="J51" s="158"/>
+      <c r="F51" s="119"/>
+      <c r="G51" s="121"/>
+      <c r="H51" s="152"/>
+      <c r="I51" s="153"/>
+      <c r="J51" s="154"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
@@ -9693,11 +9652,11 @@
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
       <c r="E52" s="32"/>
-      <c r="F52" s="120"/>
-      <c r="G52" s="122"/>
-      <c r="H52" s="156"/>
-      <c r="I52" s="157"/>
-      <c r="J52" s="158"/>
+      <c r="F52" s="119"/>
+      <c r="G52" s="121"/>
+      <c r="H52" s="152"/>
+      <c r="I52" s="153"/>
+      <c r="J52" s="154"/>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
@@ -9714,11 +9673,11 @@
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="32"/>
-      <c r="F53" s="120"/>
-      <c r="G53" s="122"/>
-      <c r="H53" s="156"/>
-      <c r="I53" s="157"/>
-      <c r="J53" s="158"/>
+      <c r="F53" s="119"/>
+      <c r="G53" s="121"/>
+      <c r="H53" s="152"/>
+      <c r="I53" s="153"/>
+      <c r="J53" s="154"/>
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
@@ -9735,11 +9694,11 @@
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
       <c r="E54" s="32"/>
-      <c r="F54" s="120"/>
-      <c r="G54" s="122"/>
-      <c r="H54" s="156"/>
-      <c r="I54" s="157"/>
-      <c r="J54" s="158"/>
+      <c r="F54" s="119"/>
+      <c r="G54" s="121"/>
+      <c r="H54" s="152"/>
+      <c r="I54" s="153"/>
+      <c r="J54" s="154"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
@@ -9756,11 +9715,11 @@
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
       <c r="E55" s="32"/>
-      <c r="F55" s="120"/>
-      <c r="G55" s="122"/>
-      <c r="H55" s="156"/>
-      <c r="I55" s="157"/>
-      <c r="J55" s="158"/>
+      <c r="F55" s="119"/>
+      <c r="G55" s="121"/>
+      <c r="H55" s="152"/>
+      <c r="I55" s="153"/>
+      <c r="J55" s="154"/>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
@@ -9777,11 +9736,11 @@
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
       <c r="E56" s="32"/>
-      <c r="F56" s="120"/>
-      <c r="G56" s="122"/>
-      <c r="H56" s="156"/>
-      <c r="I56" s="157"/>
-      <c r="J56" s="158"/>
+      <c r="F56" s="119"/>
+      <c r="G56" s="121"/>
+      <c r="H56" s="152"/>
+      <c r="I56" s="153"/>
+      <c r="J56" s="154"/>
       <c r="L56" s="22"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
@@ -9793,6 +9752,99 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
     <mergeCell ref="F56:G56"/>
     <mergeCell ref="F53:G53"/>
     <mergeCell ref="F54:G54"/>
@@ -9807,99 +9859,6 @@
     <mergeCell ref="H54:J54"/>
     <mergeCell ref="H55:J55"/>
     <mergeCell ref="H56:J56"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E56">
@@ -9917,8 +9876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1048467"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:J5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -9941,20 +9900,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
       <c r="E1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="162" t="str">
+      <c r="F1" s="159" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="162"/>
+      <c r="G1" s="159"/>
       <c r="H1" s="26" t="s">
         <v>3</v>
       </c>
@@ -9982,18 +9941,18 @@
       <c r="Q1" s="52"/>
     </row>
     <row r="2" spans="1:17" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="126"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
       <c r="E2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="162" t="str">
+      <c r="F2" s="159" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CI</v>
       </c>
-      <c r="G2" s="162"/>
+      <c r="G2" s="159"/>
       <c r="H2" s="26" t="s">
         <v>49</v>
       </c>
@@ -10069,37 +10028,37 @@
         <v>136</v>
       </c>
       <c r="C5" s="83" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D5" s="63" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E5" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="116" t="s">
-        <v>259</v>
-      </c>
-      <c r="G5" s="123" t="s">
-        <v>268</v>
-      </c>
-      <c r="H5" s="124"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="125"/>
+      <c r="F5" s="115" t="s">
+        <v>258</v>
+      </c>
+      <c r="G5" s="122" t="s">
+        <v>267</v>
+      </c>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="124"/>
       <c r="K5" s="113" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L5" s="113" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M5" s="74" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N5" s="73" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O5" s="114" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P5" s="64"/>
       <c r="Q5" s="64"/>
@@ -10112,37 +10071,37 @@
         <v>136</v>
       </c>
       <c r="C6" s="114" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D6" s="63" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E6" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="116" t="s">
-        <v>260</v>
-      </c>
-      <c r="G6" s="123" t="s">
-        <v>286</v>
-      </c>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="125"/>
+      <c r="F6" s="115" t="s">
+        <v>259</v>
+      </c>
+      <c r="G6" s="122" t="s">
+        <v>284</v>
+      </c>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="124"/>
       <c r="K6" s="113" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L6" s="113" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M6" s="74" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N6" s="73" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O6" s="63" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P6" s="64"/>
       <c r="Q6" s="64"/>
@@ -10155,33 +10114,33 @@
         <v>136</v>
       </c>
       <c r="C7" s="83" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D7" s="63" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E7" s="63" t="s">
-        <v>269</v>
-      </c>
-      <c r="F7" s="116" t="s">
-        <v>261</v>
-      </c>
-      <c r="G7" s="167" t="s">
-        <v>270</v>
-      </c>
-      <c r="H7" s="168"/>
-      <c r="I7" s="168"/>
-      <c r="J7" s="169"/>
+        <v>268</v>
+      </c>
+      <c r="F7" s="115" t="s">
+        <v>260</v>
+      </c>
+      <c r="G7" s="122" t="s">
+        <v>292</v>
+      </c>
+      <c r="H7" s="123"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="124"/>
       <c r="K7" s="113"/>
       <c r="L7" s="113"/>
       <c r="M7" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="N7" s="117" t="s">
-        <v>264</v>
+      <c r="N7" s="116" t="s">
+        <v>263</v>
       </c>
       <c r="O7" s="63" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="P7" s="64"/>
       <c r="Q7" s="64"/>
@@ -10194,37 +10153,37 @@
         <v>136</v>
       </c>
       <c r="C8" s="114" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D8" s="63" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E8" s="63" t="s">
-        <v>269</v>
-      </c>
-      <c r="F8" s="116" t="s">
-        <v>262</v>
-      </c>
-      <c r="G8" s="167" t="s">
-        <v>292</v>
-      </c>
-      <c r="H8" s="168"/>
-      <c r="I8" s="168"/>
-      <c r="J8" s="169"/>
-      <c r="K8" s="115" t="s">
+        <v>268</v>
+      </c>
+      <c r="F8" s="115" t="s">
+        <v>261</v>
+      </c>
+      <c r="G8" s="122" t="s">
         <v>293</v>
       </c>
-      <c r="L8" s="115" t="s">
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="124"/>
+      <c r="K8" s="118" t="s">
         <v>294</v>
       </c>
+      <c r="L8" s="118" t="s">
+        <v>295</v>
+      </c>
       <c r="M8" s="74" t="s">
-        <v>239</v>
-      </c>
-      <c r="N8" s="117" t="s">
-        <v>274</v>
+        <v>253</v>
+      </c>
+      <c r="N8" s="116" t="s">
+        <v>272</v>
       </c>
       <c r="O8" s="63" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P8" s="64"/>
       <c r="Q8" s="64"/>
@@ -10237,11 +10196,11 @@
       <c r="C9" s="83"/>
       <c r="D9" s="63"/>
       <c r="E9" s="63"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="124"/>
-      <c r="I9" s="124"/>
-      <c r="J9" s="125"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="124"/>
       <c r="K9" s="113"/>
       <c r="L9" s="113"/>
       <c r="M9" s="74"/>
@@ -10259,10 +10218,10 @@
       <c r="D10" s="63"/>
       <c r="E10" s="63"/>
       <c r="F10" s="63"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="125"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="124"/>
       <c r="K10" s="113"/>
       <c r="L10" s="113"/>
       <c r="M10" s="74"/>
@@ -10280,10 +10239,10 @@
       <c r="D11" s="63"/>
       <c r="E11" s="63"/>
       <c r="F11" s="63"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="125"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="124"/>
       <c r="K11" s="113"/>
       <c r="L11" s="113"/>
       <c r="M11" s="74"/>
@@ -10301,10 +10260,10 @@
       <c r="D12" s="63"/>
       <c r="E12" s="63"/>
       <c r="F12" s="63"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="124"/>
-      <c r="J12" s="125"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="124"/>
       <c r="K12" s="113"/>
       <c r="L12" s="113"/>
       <c r="M12" s="74"/>
@@ -10322,10 +10281,10 @@
       <c r="D13" s="63"/>
       <c r="E13" s="63"/>
       <c r="F13" s="63"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="124"/>
-      <c r="J13" s="125"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="124"/>
       <c r="K13" s="113"/>
       <c r="L13" s="113"/>
       <c r="M13" s="74"/>
@@ -10343,10 +10302,10 @@
       <c r="D14" s="63"/>
       <c r="E14" s="63"/>
       <c r="F14" s="63"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="124"/>
-      <c r="J14" s="125"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="124"/>
       <c r="K14" s="113"/>
       <c r="L14" s="113"/>
       <c r="M14" s="74"/>
@@ -10364,10 +10323,10 @@
       <c r="D15" s="63"/>
       <c r="E15" s="63"/>
       <c r="F15" s="63"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="124"/>
-      <c r="J15" s="125"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="124"/>
       <c r="K15" s="113"/>
       <c r="L15" s="113"/>
       <c r="M15" s="74"/>
@@ -10385,10 +10344,10 @@
       <c r="D16" s="63"/>
       <c r="E16" s="63"/>
       <c r="F16" s="40"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="124"/>
-      <c r="J16" s="125"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="124"/>
       <c r="K16" s="113"/>
       <c r="L16" s="114"/>
       <c r="M16" s="74"/>
@@ -10406,10 +10365,10 @@
       <c r="D17" s="63"/>
       <c r="E17" s="63"/>
       <c r="F17" s="40"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="124"/>
-      <c r="J17" s="125"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="124"/>
       <c r="K17" s="114"/>
       <c r="L17" s="114"/>
       <c r="M17" s="74"/>
@@ -10427,10 +10386,10 @@
       <c r="D18" s="63"/>
       <c r="E18" s="63"/>
       <c r="F18" s="40"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="124"/>
-      <c r="I18" s="124"/>
-      <c r="J18" s="125"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="124"/>
       <c r="K18" s="114"/>
       <c r="L18" s="114"/>
       <c r="M18" s="74"/>
@@ -10448,10 +10407,10 @@
       <c r="D19" s="63"/>
       <c r="E19" s="63"/>
       <c r="F19" s="40"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="124"/>
-      <c r="I19" s="124"/>
-      <c r="J19" s="125"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="124"/>
       <c r="K19" s="114"/>
       <c r="L19" s="114"/>
       <c r="M19" s="74"/>
@@ -10469,10 +10428,10 @@
       <c r="D20" s="63"/>
       <c r="E20" s="63"/>
       <c r="F20" s="40"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="124"/>
-      <c r="J20" s="125"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="124"/>
       <c r="K20" s="114"/>
       <c r="L20" s="114"/>
       <c r="M20" s="74"/>
@@ -10490,10 +10449,10 @@
       <c r="D21" s="63"/>
       <c r="E21" s="63"/>
       <c r="F21" s="40"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="124"/>
-      <c r="I21" s="124"/>
-      <c r="J21" s="125"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="124"/>
       <c r="K21" s="114"/>
       <c r="L21" s="114"/>
       <c r="M21" s="74"/>
@@ -10511,10 +10470,10 @@
       <c r="D22" s="63"/>
       <c r="E22" s="63"/>
       <c r="F22" s="40"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="124"/>
-      <c r="I22" s="124"/>
-      <c r="J22" s="125"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="124"/>
       <c r="K22" s="114"/>
       <c r="L22" s="114"/>
       <c r="M22" s="74"/>
@@ -10532,10 +10491,10 @@
       <c r="D23" s="63"/>
       <c r="E23" s="63"/>
       <c r="F23" s="40"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="124"/>
-      <c r="I23" s="124"/>
-      <c r="J23" s="125"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="124"/>
       <c r="K23" s="114"/>
       <c r="L23" s="114"/>
       <c r="M23" s="74"/>
@@ -10553,10 +10512,10 @@
       <c r="D24" s="63"/>
       <c r="E24" s="63"/>
       <c r="F24" s="40"/>
-      <c r="G24" s="123"/>
-      <c r="H24" s="124"/>
-      <c r="I24" s="124"/>
-      <c r="J24" s="125"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="123"/>
+      <c r="J24" s="124"/>
       <c r="K24" s="114"/>
       <c r="L24" s="114"/>
       <c r="M24" s="74"/>
@@ -10574,10 +10533,10 @@
       <c r="D25" s="63"/>
       <c r="E25" s="63"/>
       <c r="F25" s="40"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="124"/>
-      <c r="I25" s="124"/>
-      <c r="J25" s="125"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="124"/>
       <c r="K25" s="114"/>
       <c r="L25" s="114"/>
       <c r="M25" s="74"/>
@@ -10595,10 +10554,10 @@
       <c r="D26" s="63"/>
       <c r="E26" s="63"/>
       <c r="F26" s="40"/>
-      <c r="G26" s="123"/>
-      <c r="H26" s="124"/>
-      <c r="I26" s="124"/>
-      <c r="J26" s="125"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="123"/>
+      <c r="J26" s="124"/>
       <c r="K26" s="114"/>
       <c r="L26" s="114"/>
       <c r="M26" s="74"/>
@@ -10616,10 +10575,10 @@
       <c r="D27" s="63"/>
       <c r="E27" s="63"/>
       <c r="F27" s="40"/>
-      <c r="G27" s="123"/>
-      <c r="H27" s="124"/>
-      <c r="I27" s="124"/>
-      <c r="J27" s="125"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="123"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="124"/>
       <c r="K27" s="114"/>
       <c r="L27" s="114"/>
       <c r="M27" s="74"/>
@@ -10637,10 +10596,10 @@
       <c r="D28" s="63"/>
       <c r="E28" s="63"/>
       <c r="F28" s="40"/>
-      <c r="G28" s="123"/>
-      <c r="H28" s="124"/>
-      <c r="I28" s="124"/>
-      <c r="J28" s="125"/>
+      <c r="G28" s="122"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="124"/>
       <c r="K28" s="114"/>
       <c r="L28" s="114"/>
       <c r="M28" s="74"/>
@@ -10658,10 +10617,10 @@
       <c r="D29" s="63"/>
       <c r="E29" s="63"/>
       <c r="F29" s="40"/>
-      <c r="G29" s="123"/>
-      <c r="H29" s="124"/>
-      <c r="I29" s="124"/>
-      <c r="J29" s="125"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="123"/>
+      <c r="I29" s="123"/>
+      <c r="J29" s="124"/>
       <c r="K29" s="114"/>
       <c r="L29" s="114"/>
       <c r="M29" s="74"/>
@@ -10679,10 +10638,10 @@
       <c r="D30" s="63"/>
       <c r="E30" s="63"/>
       <c r="F30" s="40"/>
-      <c r="G30" s="123"/>
-      <c r="H30" s="124"/>
-      <c r="I30" s="124"/>
-      <c r="J30" s="125"/>
+      <c r="G30" s="122"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="123"/>
+      <c r="J30" s="124"/>
       <c r="K30" s="114"/>
       <c r="L30" s="114"/>
       <c r="M30" s="74"/>
@@ -10700,10 +10659,10 @@
       <c r="D31" s="63"/>
       <c r="E31" s="63"/>
       <c r="F31" s="40"/>
-      <c r="G31" s="123"/>
-      <c r="H31" s="124"/>
-      <c r="I31" s="124"/>
-      <c r="J31" s="125"/>
+      <c r="G31" s="122"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="124"/>
       <c r="K31" s="114"/>
       <c r="L31" s="114"/>
       <c r="M31" s="74"/>
@@ -10721,10 +10680,10 @@
       <c r="D32" s="63"/>
       <c r="E32" s="63"/>
       <c r="F32" s="40"/>
-      <c r="G32" s="123"/>
-      <c r="H32" s="124"/>
-      <c r="I32" s="124"/>
-      <c r="J32" s="125"/>
+      <c r="G32" s="122"/>
+      <c r="H32" s="123"/>
+      <c r="I32" s="123"/>
+      <c r="J32" s="124"/>
       <c r="K32" s="114"/>
       <c r="L32" s="114"/>
       <c r="M32" s="74"/>
@@ -10742,10 +10701,10 @@
       <c r="D33" s="63"/>
       <c r="E33" s="63"/>
       <c r="F33" s="40"/>
-      <c r="G33" s="123"/>
-      <c r="H33" s="124"/>
-      <c r="I33" s="124"/>
-      <c r="J33" s="125"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="123"/>
+      <c r="I33" s="123"/>
+      <c r="J33" s="124"/>
       <c r="K33" s="114"/>
       <c r="L33" s="114"/>
       <c r="M33" s="74"/>
@@ -10763,10 +10722,10 @@
       <c r="D34" s="63"/>
       <c r="E34" s="63"/>
       <c r="F34" s="63"/>
-      <c r="G34" s="123"/>
-      <c r="H34" s="124"/>
-      <c r="I34" s="124"/>
-      <c r="J34" s="125"/>
+      <c r="G34" s="122"/>
+      <c r="H34" s="123"/>
+      <c r="I34" s="123"/>
+      <c r="J34" s="124"/>
       <c r="K34" s="113"/>
       <c r="L34" s="113"/>
       <c r="M34" s="74"/>
@@ -10784,10 +10743,10 @@
       <c r="D35" s="63"/>
       <c r="E35" s="63"/>
       <c r="F35" s="40"/>
-      <c r="G35" s="123"/>
-      <c r="H35" s="124"/>
-      <c r="I35" s="124"/>
-      <c r="J35" s="125"/>
+      <c r="G35" s="122"/>
+      <c r="H35" s="123"/>
+      <c r="I35" s="123"/>
+      <c r="J35" s="124"/>
       <c r="K35" s="60"/>
       <c r="L35" s="60"/>
       <c r="M35" s="74"/>
@@ -10805,10 +10764,10 @@
       <c r="D36" s="63"/>
       <c r="E36" s="63"/>
       <c r="F36" s="40"/>
-      <c r="G36" s="123"/>
-      <c r="H36" s="124"/>
-      <c r="I36" s="124"/>
-      <c r="J36" s="125"/>
+      <c r="G36" s="122"/>
+      <c r="H36" s="123"/>
+      <c r="I36" s="123"/>
+      <c r="J36" s="124"/>
       <c r="K36" s="60"/>
       <c r="L36" s="60"/>
       <c r="M36" s="74"/>
@@ -10826,10 +10785,10 @@
       <c r="D37" s="63"/>
       <c r="E37" s="63"/>
       <c r="F37" s="40"/>
-      <c r="G37" s="123"/>
-      <c r="H37" s="124"/>
-      <c r="I37" s="124"/>
-      <c r="J37" s="125"/>
+      <c r="G37" s="122"/>
+      <c r="H37" s="123"/>
+      <c r="I37" s="123"/>
+      <c r="J37" s="124"/>
       <c r="K37" s="60"/>
       <c r="L37" s="60"/>
       <c r="M37" s="74"/>
@@ -10847,10 +10806,10 @@
       <c r="D38" s="63"/>
       <c r="E38" s="63"/>
       <c r="F38" s="40"/>
-      <c r="G38" s="123"/>
-      <c r="H38" s="124"/>
-      <c r="I38" s="124"/>
-      <c r="J38" s="125"/>
+      <c r="G38" s="122"/>
+      <c r="H38" s="123"/>
+      <c r="I38" s="123"/>
+      <c r="J38" s="124"/>
       <c r="K38" s="60"/>
       <c r="L38" s="60"/>
       <c r="M38" s="74"/>
@@ -10868,10 +10827,10 @@
       <c r="D39" s="63"/>
       <c r="E39" s="63"/>
       <c r="F39" s="40"/>
-      <c r="G39" s="123"/>
-      <c r="H39" s="124"/>
-      <c r="I39" s="124"/>
-      <c r="J39" s="125"/>
+      <c r="G39" s="122"/>
+      <c r="H39" s="123"/>
+      <c r="I39" s="123"/>
+      <c r="J39" s="124"/>
       <c r="K39" s="60"/>
       <c r="L39" s="60"/>
       <c r="M39" s="74"/>
@@ -10889,10 +10848,10 @@
       <c r="D40" s="63"/>
       <c r="E40" s="63"/>
       <c r="F40" s="40"/>
-      <c r="G40" s="123"/>
-      <c r="H40" s="124"/>
-      <c r="I40" s="124"/>
-      <c r="J40" s="125"/>
+      <c r="G40" s="122"/>
+      <c r="H40" s="123"/>
+      <c r="I40" s="123"/>
+      <c r="J40" s="124"/>
       <c r="K40" s="72"/>
       <c r="L40" s="72"/>
       <c r="M40" s="74"/>
@@ -10910,10 +10869,10 @@
       <c r="D41" s="63"/>
       <c r="E41" s="63"/>
       <c r="F41" s="40"/>
-      <c r="G41" s="159"/>
-      <c r="H41" s="160"/>
-      <c r="I41" s="160"/>
-      <c r="J41" s="161"/>
+      <c r="G41" s="160"/>
+      <c r="H41" s="161"/>
+      <c r="I41" s="161"/>
+      <c r="J41" s="162"/>
       <c r="K41" s="72"/>
       <c r="L41" s="72"/>
       <c r="M41" s="74"/>
@@ -10931,10 +10890,10 @@
       <c r="D42" s="63"/>
       <c r="E42" s="63"/>
       <c r="F42" s="40"/>
-      <c r="G42" s="159"/>
-      <c r="H42" s="160"/>
-      <c r="I42" s="160"/>
-      <c r="J42" s="161"/>
+      <c r="G42" s="160"/>
+      <c r="H42" s="161"/>
+      <c r="I42" s="161"/>
+      <c r="J42" s="162"/>
       <c r="K42" s="72"/>
       <c r="L42" s="72"/>
       <c r="M42" s="74"/>
@@ -10952,10 +10911,10 @@
       <c r="D43" s="63"/>
       <c r="E43" s="63"/>
       <c r="F43" s="40"/>
-      <c r="G43" s="159"/>
-      <c r="H43" s="160"/>
-      <c r="I43" s="160"/>
-      <c r="J43" s="161"/>
+      <c r="G43" s="160"/>
+      <c r="H43" s="161"/>
+      <c r="I43" s="161"/>
+      <c r="J43" s="162"/>
       <c r="K43" s="72"/>
       <c r="L43" s="72"/>
       <c r="M43" s="74"/>
@@ -10973,10 +10932,10 @@
       <c r="D44" s="63"/>
       <c r="E44" s="63"/>
       <c r="F44" s="40"/>
-      <c r="G44" s="159"/>
-      <c r="H44" s="160"/>
-      <c r="I44" s="160"/>
-      <c r="J44" s="161"/>
+      <c r="G44" s="160"/>
+      <c r="H44" s="161"/>
+      <c r="I44" s="161"/>
+      <c r="J44" s="162"/>
       <c r="K44" s="72"/>
       <c r="L44" s="72"/>
       <c r="M44" s="74"/>
@@ -10994,10 +10953,10 @@
       <c r="D45" s="63"/>
       <c r="E45" s="63"/>
       <c r="F45" s="40"/>
-      <c r="G45" s="159"/>
-      <c r="H45" s="160"/>
-      <c r="I45" s="160"/>
-      <c r="J45" s="161"/>
+      <c r="G45" s="160"/>
+      <c r="H45" s="161"/>
+      <c r="I45" s="161"/>
+      <c r="J45" s="162"/>
       <c r="K45" s="72"/>
       <c r="L45" s="72"/>
       <c r="M45" s="74"/>
@@ -11015,10 +10974,10 @@
       <c r="D46" s="63"/>
       <c r="E46" s="63"/>
       <c r="F46" s="40"/>
-      <c r="G46" s="159"/>
-      <c r="H46" s="160"/>
-      <c r="I46" s="160"/>
-      <c r="J46" s="161"/>
+      <c r="G46" s="160"/>
+      <c r="H46" s="161"/>
+      <c r="I46" s="161"/>
+      <c r="J46" s="162"/>
       <c r="K46" s="72"/>
       <c r="L46" s="72"/>
       <c r="M46" s="74"/>
@@ -11036,10 +10995,10 @@
       <c r="D47" s="63"/>
       <c r="E47" s="63"/>
       <c r="F47" s="40"/>
-      <c r="G47" s="159"/>
-      <c r="H47" s="160"/>
-      <c r="I47" s="160"/>
-      <c r="J47" s="161"/>
+      <c r="G47" s="160"/>
+      <c r="H47" s="161"/>
+      <c r="I47" s="161"/>
+      <c r="J47" s="162"/>
       <c r="K47" s="72"/>
       <c r="L47" s="72"/>
       <c r="M47" s="74"/>
@@ -11057,10 +11016,10 @@
       <c r="D48" s="63"/>
       <c r="E48" s="63"/>
       <c r="F48" s="40"/>
-      <c r="G48" s="159"/>
-      <c r="H48" s="160"/>
-      <c r="I48" s="160"/>
-      <c r="J48" s="161"/>
+      <c r="G48" s="160"/>
+      <c r="H48" s="161"/>
+      <c r="I48" s="161"/>
+      <c r="J48" s="162"/>
       <c r="K48" s="72"/>
       <c r="L48" s="72"/>
       <c r="M48" s="74"/>
@@ -11078,10 +11037,10 @@
       <c r="D49" s="63"/>
       <c r="E49" s="63"/>
       <c r="F49" s="40"/>
-      <c r="G49" s="159"/>
-      <c r="H49" s="160"/>
-      <c r="I49" s="160"/>
-      <c r="J49" s="161"/>
+      <c r="G49" s="160"/>
+      <c r="H49" s="161"/>
+      <c r="I49" s="161"/>
+      <c r="J49" s="162"/>
       <c r="K49" s="72"/>
       <c r="L49" s="72"/>
       <c r="M49" s="74"/>
@@ -11099,10 +11058,10 @@
       <c r="D50" s="63"/>
       <c r="E50" s="63"/>
       <c r="F50" s="40"/>
-      <c r="G50" s="159"/>
-      <c r="H50" s="160"/>
-      <c r="I50" s="160"/>
-      <c r="J50" s="161"/>
+      <c r="G50" s="160"/>
+      <c r="H50" s="161"/>
+      <c r="I50" s="161"/>
+      <c r="J50" s="162"/>
       <c r="K50" s="72"/>
       <c r="L50" s="72"/>
       <c r="M50" s="74"/>
@@ -11120,10 +11079,10 @@
       <c r="D51" s="63"/>
       <c r="E51" s="63"/>
       <c r="F51" s="40"/>
-      <c r="G51" s="159"/>
-      <c r="H51" s="160"/>
-      <c r="I51" s="160"/>
-      <c r="J51" s="161"/>
+      <c r="G51" s="160"/>
+      <c r="H51" s="161"/>
+      <c r="I51" s="161"/>
+      <c r="J51" s="162"/>
       <c r="K51" s="72"/>
       <c r="L51" s="72"/>
       <c r="M51" s="74"/>
@@ -11141,10 +11100,10 @@
       <c r="D52" s="63"/>
       <c r="E52" s="63"/>
       <c r="F52" s="40"/>
-      <c r="G52" s="159"/>
-      <c r="H52" s="160"/>
-      <c r="I52" s="160"/>
-      <c r="J52" s="161"/>
+      <c r="G52" s="160"/>
+      <c r="H52" s="161"/>
+      <c r="I52" s="161"/>
+      <c r="J52" s="162"/>
       <c r="K52" s="72"/>
       <c r="L52" s="72"/>
       <c r="M52" s="74"/>
@@ -11162,10 +11121,10 @@
       <c r="D53" s="63"/>
       <c r="E53" s="63"/>
       <c r="F53" s="40"/>
-      <c r="G53" s="159"/>
-      <c r="H53" s="160"/>
-      <c r="I53" s="160"/>
-      <c r="J53" s="161"/>
+      <c r="G53" s="160"/>
+      <c r="H53" s="161"/>
+      <c r="I53" s="161"/>
+      <c r="J53" s="162"/>
       <c r="K53" s="72"/>
       <c r="L53" s="72"/>
       <c r="M53" s="74"/>
@@ -11183,10 +11142,10 @@
       <c r="D54" s="63"/>
       <c r="E54" s="63"/>
       <c r="F54" s="40"/>
-      <c r="G54" s="159"/>
-      <c r="H54" s="160"/>
-      <c r="I54" s="160"/>
-      <c r="J54" s="161"/>
+      <c r="G54" s="160"/>
+      <c r="H54" s="161"/>
+      <c r="I54" s="161"/>
+      <c r="J54" s="162"/>
       <c r="K54" s="72"/>
       <c r="L54" s="72"/>
       <c r="M54" s="74"/>
@@ -11204,10 +11163,10 @@
       <c r="D55" s="63"/>
       <c r="E55" s="63"/>
       <c r="F55" s="40"/>
-      <c r="G55" s="159"/>
-      <c r="H55" s="160"/>
-      <c r="I55" s="160"/>
-      <c r="J55" s="161"/>
+      <c r="G55" s="160"/>
+      <c r="H55" s="161"/>
+      <c r="I55" s="161"/>
+      <c r="J55" s="162"/>
       <c r="K55" s="72"/>
       <c r="L55" s="72"/>
       <c r="M55" s="74"/>
@@ -11225,10 +11184,10 @@
       <c r="D56" s="63"/>
       <c r="E56" s="63"/>
       <c r="F56" s="40"/>
-      <c r="G56" s="159"/>
-      <c r="H56" s="160"/>
-      <c r="I56" s="160"/>
-      <c r="J56" s="161"/>
+      <c r="G56" s="160"/>
+      <c r="H56" s="161"/>
+      <c r="I56" s="161"/>
+      <c r="J56" s="162"/>
       <c r="K56" s="72"/>
       <c r="L56" s="72"/>
       <c r="M56" s="74"/>
@@ -11246,10 +11205,10 @@
       <c r="D57" s="63"/>
       <c r="E57" s="63"/>
       <c r="F57" s="40"/>
-      <c r="G57" s="159"/>
-      <c r="H57" s="160"/>
-      <c r="I57" s="160"/>
-      <c r="J57" s="161"/>
+      <c r="G57" s="160"/>
+      <c r="H57" s="161"/>
+      <c r="I57" s="161"/>
+      <c r="J57" s="162"/>
       <c r="K57" s="72"/>
       <c r="L57" s="72"/>
       <c r="M57" s="74"/>
@@ -11267,10 +11226,10 @@
       <c r="D58" s="63"/>
       <c r="E58" s="63"/>
       <c r="F58" s="40"/>
-      <c r="G58" s="159"/>
-      <c r="H58" s="160"/>
-      <c r="I58" s="160"/>
-      <c r="J58" s="161"/>
+      <c r="G58" s="160"/>
+      <c r="H58" s="161"/>
+      <c r="I58" s="161"/>
+      <c r="J58" s="162"/>
       <c r="K58" s="72"/>
       <c r="L58" s="72"/>
       <c r="M58" s="74"/>
@@ -11288,10 +11247,10 @@
       <c r="D59" s="63"/>
       <c r="E59" s="63"/>
       <c r="F59" s="40"/>
-      <c r="G59" s="159"/>
-      <c r="H59" s="160"/>
-      <c r="I59" s="160"/>
-      <c r="J59" s="161"/>
+      <c r="G59" s="160"/>
+      <c r="H59" s="161"/>
+      <c r="I59" s="161"/>
+      <c r="J59" s="162"/>
       <c r="K59" s="72"/>
       <c r="L59" s="72"/>
       <c r="M59" s="74"/>
@@ -11309,10 +11268,10 @@
       <c r="D60" s="63"/>
       <c r="E60" s="63"/>
       <c r="F60" s="40"/>
-      <c r="G60" s="159"/>
-      <c r="H60" s="160"/>
-      <c r="I60" s="160"/>
-      <c r="J60" s="161"/>
+      <c r="G60" s="160"/>
+      <c r="H60" s="161"/>
+      <c r="I60" s="161"/>
+      <c r="J60" s="162"/>
       <c r="K60" s="72"/>
       <c r="L60" s="72"/>
       <c r="M60" s="74"/>
@@ -11330,10 +11289,10 @@
       <c r="D61" s="63"/>
       <c r="E61" s="63"/>
       <c r="F61" s="40"/>
-      <c r="G61" s="159"/>
-      <c r="H61" s="160"/>
-      <c r="I61" s="160"/>
-      <c r="J61" s="161"/>
+      <c r="G61" s="160"/>
+      <c r="H61" s="161"/>
+      <c r="I61" s="161"/>
+      <c r="J61" s="162"/>
       <c r="K61" s="72"/>
       <c r="L61" s="72"/>
       <c r="M61" s="74"/>
@@ -11351,10 +11310,10 @@
       <c r="D62" s="63"/>
       <c r="E62" s="63"/>
       <c r="F62" s="40"/>
-      <c r="G62" s="159"/>
-      <c r="H62" s="160"/>
-      <c r="I62" s="160"/>
-      <c r="J62" s="161"/>
+      <c r="G62" s="160"/>
+      <c r="H62" s="161"/>
+      <c r="I62" s="161"/>
+      <c r="J62" s="162"/>
       <c r="K62" s="81"/>
       <c r="L62" s="81"/>
       <c r="M62" s="74"/>
@@ -11372,10 +11331,10 @@
       <c r="D63" s="63"/>
       <c r="E63" s="63"/>
       <c r="F63" s="40"/>
-      <c r="G63" s="159"/>
-      <c r="H63" s="160"/>
-      <c r="I63" s="160"/>
-      <c r="J63" s="161"/>
+      <c r="G63" s="160"/>
+      <c r="H63" s="161"/>
+      <c r="I63" s="161"/>
+      <c r="J63" s="162"/>
       <c r="K63" s="81"/>
       <c r="L63" s="81"/>
       <c r="M63" s="74"/>
@@ -11393,10 +11352,10 @@
       <c r="D64" s="63"/>
       <c r="E64" s="63"/>
       <c r="F64" s="40"/>
-      <c r="G64" s="159"/>
-      <c r="H64" s="160"/>
-      <c r="I64" s="160"/>
-      <c r="J64" s="161"/>
+      <c r="G64" s="160"/>
+      <c r="H64" s="161"/>
+      <c r="I64" s="161"/>
+      <c r="J64" s="162"/>
       <c r="K64" s="81"/>
       <c r="L64" s="81"/>
       <c r="M64" s="74"/>
@@ -11412,10 +11371,10 @@
       <c r="D65" s="63"/>
       <c r="E65" s="63"/>
       <c r="F65" s="40"/>
-      <c r="G65" s="159"/>
-      <c r="H65" s="160"/>
-      <c r="I65" s="160"/>
-      <c r="J65" s="161"/>
+      <c r="G65" s="160"/>
+      <c r="H65" s="161"/>
+      <c r="I65" s="161"/>
+      <c r="J65" s="162"/>
       <c r="K65" s="81"/>
       <c r="L65" s="81"/>
       <c r="M65" s="74"/>
@@ -11431,10 +11390,10 @@
       <c r="D66" s="63"/>
       <c r="E66" s="63"/>
       <c r="F66" s="40"/>
-      <c r="G66" s="159"/>
-      <c r="H66" s="160"/>
-      <c r="I66" s="160"/>
-      <c r="J66" s="161"/>
+      <c r="G66" s="160"/>
+      <c r="H66" s="161"/>
+      <c r="I66" s="161"/>
+      <c r="J66" s="162"/>
       <c r="K66" s="81"/>
       <c r="L66" s="81"/>
       <c r="M66" s="74"/>
@@ -11450,10 +11409,10 @@
       <c r="D67" s="63"/>
       <c r="E67" s="63"/>
       <c r="F67" s="40"/>
-      <c r="G67" s="159"/>
-      <c r="H67" s="160"/>
-      <c r="I67" s="160"/>
-      <c r="J67" s="161"/>
+      <c r="G67" s="160"/>
+      <c r="H67" s="161"/>
+      <c r="I67" s="161"/>
+      <c r="J67" s="162"/>
       <c r="K67" s="81"/>
       <c r="L67" s="81"/>
       <c r="M67" s="74"/>
@@ -11469,10 +11428,10 @@
       <c r="D68" s="63"/>
       <c r="E68" s="63"/>
       <c r="F68" s="40"/>
-      <c r="G68" s="159"/>
-      <c r="H68" s="160"/>
-      <c r="I68" s="160"/>
-      <c r="J68" s="161"/>
+      <c r="G68" s="160"/>
+      <c r="H68" s="161"/>
+      <c r="I68" s="161"/>
+      <c r="J68" s="162"/>
       <c r="K68" s="81"/>
       <c r="L68" s="81"/>
       <c r="M68" s="74"/>
@@ -11488,10 +11447,10 @@
       <c r="D69" s="63"/>
       <c r="E69" s="63"/>
       <c r="F69" s="40"/>
-      <c r="G69" s="159"/>
-      <c r="H69" s="160"/>
-      <c r="I69" s="160"/>
-      <c r="J69" s="161"/>
+      <c r="G69" s="160"/>
+      <c r="H69" s="161"/>
+      <c r="I69" s="161"/>
+      <c r="J69" s="162"/>
       <c r="K69" s="81"/>
       <c r="L69" s="81"/>
       <c r="M69" s="74"/>
@@ -11507,10 +11466,10 @@
       <c r="D70" s="63"/>
       <c r="E70" s="63"/>
       <c r="F70" s="40"/>
-      <c r="G70" s="159"/>
-      <c r="H70" s="160"/>
-      <c r="I70" s="160"/>
-      <c r="J70" s="161"/>
+      <c r="G70" s="160"/>
+      <c r="H70" s="161"/>
+      <c r="I70" s="161"/>
+      <c r="J70" s="162"/>
       <c r="K70" s="81"/>
       <c r="L70" s="81"/>
       <c r="M70" s="74"/>
@@ -11526,10 +11485,10 @@
       <c r="D71" s="63"/>
       <c r="E71" s="63"/>
       <c r="F71" s="40"/>
-      <c r="G71" s="159"/>
-      <c r="H71" s="160"/>
-      <c r="I71" s="160"/>
-      <c r="J71" s="161"/>
+      <c r="G71" s="160"/>
+      <c r="H71" s="161"/>
+      <c r="I71" s="161"/>
+      <c r="J71" s="162"/>
       <c r="K71" s="81"/>
       <c r="L71" s="81"/>
       <c r="M71" s="74"/>
@@ -11545,10 +11504,10 @@
       <c r="D72" s="63"/>
       <c r="E72" s="63"/>
       <c r="F72" s="40"/>
-      <c r="G72" s="159"/>
-      <c r="H72" s="160"/>
-      <c r="I72" s="160"/>
-      <c r="J72" s="161"/>
+      <c r="G72" s="160"/>
+      <c r="H72" s="161"/>
+      <c r="I72" s="161"/>
+      <c r="J72" s="162"/>
       <c r="K72" s="81"/>
       <c r="L72" s="81"/>
       <c r="M72" s="74"/>
@@ -11564,10 +11523,10 @@
       <c r="D73" s="63"/>
       <c r="E73" s="63"/>
       <c r="F73" s="40"/>
-      <c r="G73" s="159"/>
-      <c r="H73" s="160"/>
-      <c r="I73" s="160"/>
-      <c r="J73" s="161"/>
+      <c r="G73" s="160"/>
+      <c r="H73" s="161"/>
+      <c r="I73" s="161"/>
+      <c r="J73" s="162"/>
       <c r="K73" s="81"/>
       <c r="L73" s="81"/>
       <c r="M73" s="74"/>
@@ -11583,10 +11542,10 @@
       <c r="D74" s="63"/>
       <c r="E74" s="63"/>
       <c r="F74" s="40"/>
-      <c r="G74" s="159"/>
-      <c r="H74" s="160"/>
-      <c r="I74" s="160"/>
-      <c r="J74" s="161"/>
+      <c r="G74" s="160"/>
+      <c r="H74" s="161"/>
+      <c r="I74" s="161"/>
+      <c r="J74" s="162"/>
       <c r="K74" s="81"/>
       <c r="L74" s="81"/>
       <c r="M74" s="74"/>
@@ -11602,10 +11561,10 @@
       <c r="D75" s="63"/>
       <c r="E75" s="63"/>
       <c r="F75" s="40"/>
-      <c r="G75" s="159"/>
-      <c r="H75" s="160"/>
-      <c r="I75" s="160"/>
-      <c r="J75" s="161"/>
+      <c r="G75" s="160"/>
+      <c r="H75" s="161"/>
+      <c r="I75" s="161"/>
+      <c r="J75" s="162"/>
       <c r="K75" s="81"/>
       <c r="L75" s="81"/>
       <c r="M75" s="74"/>
@@ -11621,10 +11580,10 @@
       <c r="D76" s="63"/>
       <c r="E76" s="63"/>
       <c r="F76" s="40"/>
-      <c r="G76" s="159"/>
-      <c r="H76" s="160"/>
-      <c r="I76" s="160"/>
-      <c r="J76" s="161"/>
+      <c r="G76" s="160"/>
+      <c r="H76" s="161"/>
+      <c r="I76" s="161"/>
+      <c r="J76" s="162"/>
       <c r="K76" s="81"/>
       <c r="L76" s="81"/>
       <c r="M76" s="74"/>
@@ -11640,10 +11599,10 @@
       <c r="D77" s="63"/>
       <c r="E77" s="63"/>
       <c r="F77" s="40"/>
-      <c r="G77" s="159"/>
-      <c r="H77" s="160"/>
-      <c r="I77" s="160"/>
-      <c r="J77" s="161"/>
+      <c r="G77" s="160"/>
+      <c r="H77" s="161"/>
+      <c r="I77" s="161"/>
+      <c r="J77" s="162"/>
       <c r="K77" s="81"/>
       <c r="L77" s="81"/>
       <c r="M77" s="74"/>
@@ -11659,10 +11618,10 @@
       <c r="D78" s="63"/>
       <c r="E78" s="63"/>
       <c r="F78" s="40"/>
-      <c r="G78" s="159"/>
-      <c r="H78" s="160"/>
-      <c r="I78" s="160"/>
-      <c r="J78" s="161"/>
+      <c r="G78" s="160"/>
+      <c r="H78" s="161"/>
+      <c r="I78" s="161"/>
+      <c r="J78" s="162"/>
       <c r="K78" s="81"/>
       <c r="L78" s="81"/>
       <c r="M78" s="74"/>
@@ -11678,10 +11637,10 @@
       <c r="D79" s="63"/>
       <c r="E79" s="63"/>
       <c r="F79" s="40"/>
-      <c r="G79" s="159"/>
-      <c r="H79" s="160"/>
-      <c r="I79" s="160"/>
-      <c r="J79" s="161"/>
+      <c r="G79" s="160"/>
+      <c r="H79" s="161"/>
+      <c r="I79" s="161"/>
+      <c r="J79" s="162"/>
       <c r="K79" s="81"/>
       <c r="L79" s="81"/>
       <c r="M79" s="74"/>
@@ -11697,10 +11656,10 @@
       <c r="D80" s="63"/>
       <c r="E80" s="63"/>
       <c r="F80" s="40"/>
-      <c r="G80" s="159"/>
-      <c r="H80" s="160"/>
-      <c r="I80" s="160"/>
-      <c r="J80" s="161"/>
+      <c r="G80" s="160"/>
+      <c r="H80" s="161"/>
+      <c r="I80" s="161"/>
+      <c r="J80" s="162"/>
       <c r="K80" s="81"/>
       <c r="L80" s="81"/>
       <c r="M80" s="74"/>
@@ -11716,10 +11675,10 @@
       <c r="D81" s="63"/>
       <c r="E81" s="63"/>
       <c r="F81" s="40"/>
-      <c r="G81" s="159"/>
-      <c r="H81" s="160"/>
-      <c r="I81" s="160"/>
-      <c r="J81" s="161"/>
+      <c r="G81" s="160"/>
+      <c r="H81" s="161"/>
+      <c r="I81" s="161"/>
+      <c r="J81" s="162"/>
       <c r="K81" s="81"/>
       <c r="L81" s="81"/>
       <c r="M81" s="74"/>
@@ -11735,10 +11694,10 @@
       <c r="D82" s="63"/>
       <c r="E82" s="63"/>
       <c r="F82" s="40"/>
-      <c r="G82" s="159"/>
-      <c r="H82" s="160"/>
-      <c r="I82" s="160"/>
-      <c r="J82" s="161"/>
+      <c r="G82" s="160"/>
+      <c r="H82" s="161"/>
+      <c r="I82" s="161"/>
+      <c r="J82" s="162"/>
       <c r="K82" s="81"/>
       <c r="L82" s="81"/>
       <c r="M82" s="74"/>
@@ -11754,10 +11713,10 @@
       <c r="D83" s="63"/>
       <c r="E83" s="63"/>
       <c r="F83" s="40"/>
-      <c r="G83" s="159"/>
-      <c r="H83" s="160"/>
-      <c r="I83" s="160"/>
-      <c r="J83" s="161"/>
+      <c r="G83" s="160"/>
+      <c r="H83" s="161"/>
+      <c r="I83" s="161"/>
+      <c r="J83" s="162"/>
       <c r="K83" s="81"/>
       <c r="L83" s="81"/>
       <c r="M83" s="74"/>
@@ -11773,10 +11732,10 @@
       <c r="D84" s="63"/>
       <c r="E84" s="63"/>
       <c r="F84" s="40"/>
-      <c r="G84" s="159"/>
-      <c r="H84" s="160"/>
-      <c r="I84" s="160"/>
-      <c r="J84" s="161"/>
+      <c r="G84" s="160"/>
+      <c r="H84" s="161"/>
+      <c r="I84" s="161"/>
+      <c r="J84" s="162"/>
       <c r="K84" s="81"/>
       <c r="L84" s="81"/>
       <c r="M84" s="74"/>
@@ -11792,10 +11751,10 @@
       <c r="D85" s="63"/>
       <c r="E85" s="63"/>
       <c r="F85" s="40"/>
-      <c r="G85" s="159"/>
-      <c r="H85" s="160"/>
-      <c r="I85" s="160"/>
-      <c r="J85" s="161"/>
+      <c r="G85" s="160"/>
+      <c r="H85" s="161"/>
+      <c r="I85" s="161"/>
+      <c r="J85" s="162"/>
       <c r="K85" s="81"/>
       <c r="L85" s="81"/>
       <c r="M85" s="74"/>
@@ -11811,10 +11770,10 @@
       <c r="D86" s="63"/>
       <c r="E86" s="63"/>
       <c r="F86" s="40"/>
-      <c r="G86" s="159"/>
-      <c r="H86" s="160"/>
-      <c r="I86" s="160"/>
-      <c r="J86" s="161"/>
+      <c r="G86" s="160"/>
+      <c r="H86" s="161"/>
+      <c r="I86" s="161"/>
+      <c r="J86" s="162"/>
       <c r="K86" s="81"/>
       <c r="L86" s="81"/>
       <c r="M86" s="74"/>
@@ -11830,10 +11789,10 @@
       <c r="D87" s="63"/>
       <c r="E87" s="63"/>
       <c r="F87" s="40"/>
-      <c r="G87" s="159"/>
-      <c r="H87" s="160"/>
-      <c r="I87" s="160"/>
-      <c r="J87" s="161"/>
+      <c r="G87" s="160"/>
+      <c r="H87" s="161"/>
+      <c r="I87" s="161"/>
+      <c r="J87" s="162"/>
       <c r="K87" s="81"/>
       <c r="L87" s="81"/>
       <c r="M87" s="74"/>
@@ -11849,10 +11808,10 @@
       <c r="D88" s="63"/>
       <c r="E88" s="63"/>
       <c r="F88" s="40"/>
-      <c r="G88" s="159"/>
-      <c r="H88" s="160"/>
-      <c r="I88" s="160"/>
-      <c r="J88" s="161"/>
+      <c r="G88" s="160"/>
+      <c r="H88" s="161"/>
+      <c r="I88" s="161"/>
+      <c r="J88" s="162"/>
       <c r="K88" s="81"/>
       <c r="L88" s="81"/>
       <c r="M88" s="74"/>
@@ -11868,10 +11827,10 @@
       <c r="D89" s="63"/>
       <c r="E89" s="63"/>
       <c r="F89" s="40"/>
-      <c r="G89" s="159"/>
-      <c r="H89" s="160"/>
-      <c r="I89" s="160"/>
-      <c r="J89" s="161"/>
+      <c r="G89" s="160"/>
+      <c r="H89" s="161"/>
+      <c r="I89" s="161"/>
+      <c r="J89" s="162"/>
       <c r="K89" s="81"/>
       <c r="L89" s="81"/>
       <c r="M89" s="74"/>
@@ -11887,10 +11846,10 @@
       <c r="D90" s="63"/>
       <c r="E90" s="63"/>
       <c r="F90" s="40"/>
-      <c r="G90" s="159"/>
-      <c r="H90" s="160"/>
-      <c r="I90" s="160"/>
-      <c r="J90" s="161"/>
+      <c r="G90" s="160"/>
+      <c r="H90" s="161"/>
+      <c r="I90" s="161"/>
+      <c r="J90" s="162"/>
       <c r="K90" s="81"/>
       <c r="L90" s="81"/>
       <c r="M90" s="74"/>
@@ -11906,10 +11865,10 @@
       <c r="D91" s="63"/>
       <c r="E91" s="63"/>
       <c r="F91" s="40"/>
-      <c r="G91" s="159"/>
-      <c r="H91" s="160"/>
-      <c r="I91" s="160"/>
-      <c r="J91" s="161"/>
+      <c r="G91" s="160"/>
+      <c r="H91" s="161"/>
+      <c r="I91" s="161"/>
+      <c r="J91" s="162"/>
       <c r="K91" s="81"/>
       <c r="L91" s="81"/>
       <c r="M91" s="74"/>
@@ -11925,10 +11884,10 @@
       <c r="D92" s="63"/>
       <c r="E92" s="63"/>
       <c r="F92" s="40"/>
-      <c r="G92" s="159"/>
-      <c r="H92" s="160"/>
-      <c r="I92" s="160"/>
-      <c r="J92" s="161"/>
+      <c r="G92" s="160"/>
+      <c r="H92" s="161"/>
+      <c r="I92" s="161"/>
+      <c r="J92" s="162"/>
       <c r="K92" s="81"/>
       <c r="L92" s="81"/>
       <c r="M92" s="74"/>
@@ -11944,10 +11903,10 @@
       <c r="D93" s="63"/>
       <c r="E93" s="63"/>
       <c r="F93" s="40"/>
-      <c r="G93" s="159"/>
-      <c r="H93" s="160"/>
-      <c r="I93" s="160"/>
-      <c r="J93" s="161"/>
+      <c r="G93" s="160"/>
+      <c r="H93" s="161"/>
+      <c r="I93" s="161"/>
+      <c r="J93" s="162"/>
       <c r="K93" s="81"/>
       <c r="L93" s="81"/>
       <c r="M93" s="74"/>
@@ -11963,10 +11922,10 @@
       <c r="D94" s="63"/>
       <c r="E94" s="63"/>
       <c r="F94" s="40"/>
-      <c r="G94" s="159"/>
-      <c r="H94" s="160"/>
-      <c r="I94" s="160"/>
-      <c r="J94" s="161"/>
+      <c r="G94" s="160"/>
+      <c r="H94" s="161"/>
+      <c r="I94" s="161"/>
+      <c r="J94" s="162"/>
       <c r="K94" s="81"/>
       <c r="L94" s="81"/>
       <c r="M94" s="74"/>
@@ -11979,47 +11938,43 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="94">
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="G58:J58"/>
-    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="G88:J88"/>
+    <mergeCell ref="G89:J89"/>
+    <mergeCell ref="G90:J90"/>
+    <mergeCell ref="G91:J91"/>
+    <mergeCell ref="G92:J92"/>
+    <mergeCell ref="G77:J77"/>
+    <mergeCell ref="G60:J60"/>
+    <mergeCell ref="G87:J87"/>
+    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="G62:J62"/>
+    <mergeCell ref="G63:J63"/>
+    <mergeCell ref="G64:J64"/>
+    <mergeCell ref="G65:J65"/>
+    <mergeCell ref="G66:J66"/>
+    <mergeCell ref="G67:J67"/>
+    <mergeCell ref="G68:J68"/>
+    <mergeCell ref="G72:J72"/>
+    <mergeCell ref="G73:J73"/>
+    <mergeCell ref="G74:J74"/>
+    <mergeCell ref="G75:J75"/>
+    <mergeCell ref="G76:J76"/>
+    <mergeCell ref="G93:J93"/>
+    <mergeCell ref="G94:J94"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G78:J78"/>
+    <mergeCell ref="G79:J79"/>
+    <mergeCell ref="G80:J80"/>
+    <mergeCell ref="G81:J81"/>
+    <mergeCell ref="G82:J82"/>
+    <mergeCell ref="G83:J83"/>
+    <mergeCell ref="G84:J84"/>
+    <mergeCell ref="G85:J85"/>
+    <mergeCell ref="G86:J86"/>
+    <mergeCell ref="G69:J69"/>
+    <mergeCell ref="G70:J70"/>
+    <mergeCell ref="G71:J71"/>
     <mergeCell ref="G59:J59"/>
     <mergeCell ref="G42:J42"/>
     <mergeCell ref="G43:J43"/>
@@ -12036,43 +11991,47 @@
     <mergeCell ref="G57:J57"/>
     <mergeCell ref="G51:J51"/>
     <mergeCell ref="G52:J52"/>
-    <mergeCell ref="G93:J93"/>
-    <mergeCell ref="G94:J94"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G78:J78"/>
-    <mergeCell ref="G79:J79"/>
-    <mergeCell ref="G80:J80"/>
-    <mergeCell ref="G81:J81"/>
-    <mergeCell ref="G82:J82"/>
-    <mergeCell ref="G83:J83"/>
-    <mergeCell ref="G84:J84"/>
-    <mergeCell ref="G85:J85"/>
-    <mergeCell ref="G86:J86"/>
-    <mergeCell ref="G69:J69"/>
-    <mergeCell ref="G70:J70"/>
-    <mergeCell ref="G71:J71"/>
-    <mergeCell ref="G77:J77"/>
-    <mergeCell ref="G60:J60"/>
-    <mergeCell ref="G87:J87"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="G62:J62"/>
-    <mergeCell ref="G63:J63"/>
-    <mergeCell ref="G64:J64"/>
-    <mergeCell ref="G65:J65"/>
-    <mergeCell ref="G66:J66"/>
-    <mergeCell ref="G67:J67"/>
-    <mergeCell ref="G68:J68"/>
-    <mergeCell ref="G72:J72"/>
-    <mergeCell ref="G73:J73"/>
-    <mergeCell ref="G74:J74"/>
-    <mergeCell ref="G75:J75"/>
-    <mergeCell ref="G76:J76"/>
-    <mergeCell ref="G88:J88"/>
-    <mergeCell ref="G89:J89"/>
-    <mergeCell ref="G90:J90"/>
-    <mergeCell ref="G91:J91"/>
-    <mergeCell ref="G92:J92"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="G58:J58"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="M1048467:M1048576 M5:M94"/>
@@ -12118,10 +12077,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="126"/>
+      <c r="B1" s="125"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -12149,8 +12108,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="126"/>
-      <c r="B2" s="126"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -12206,7 +12165,7 @@
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
       <c r="B6" s="43" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -12261,7 +12220,7 @@
       <c r="A10" s="43"/>
       <c r="B10" s="43"/>
       <c r="C10" s="43" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D10" s="43"/>
       <c r="E10" s="43"/>
@@ -12276,7 +12235,7 @@
       <c r="B11" s="43"/>
       <c r="C11" s="43"/>
       <c r="D11" s="82" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E11" s="43"/>
       <c r="F11" s="43"/>
@@ -12290,7 +12249,7 @@
       <c r="B12" s="43"/>
       <c r="C12" s="43"/>
       <c r="D12" s="82" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E12" s="43"/>
       <c r="F12" s="43"/>
@@ -12304,7 +12263,7 @@
       <c r="B13" s="43"/>
       <c r="C13" s="43"/>
       <c r="D13" s="82" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E13" s="43"/>
       <c r="F13" s="43"/>
@@ -12318,7 +12277,7 @@
       <c r="B14" s="43"/>
       <c r="C14" s="43"/>
       <c r="D14" s="82" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E14" s="43"/>
       <c r="F14" s="43"/>
@@ -12332,7 +12291,7 @@
       <c r="B15" s="43"/>
       <c r="C15" s="43"/>
       <c r="D15" s="82" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E15" s="43"/>
       <c r="F15" s="43"/>
@@ -12359,7 +12318,7 @@
       <c r="A17" s="78"/>
       <c r="B17" s="43"/>
       <c r="C17" s="43" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D17" s="43"/>
       <c r="E17" s="43"/>
@@ -12445,7 +12404,7 @@
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="B25" s="43"/>
       <c r="C25" s="43" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D25" s="43"/>
       <c r="E25" s="43"/>
@@ -12458,7 +12417,7 @@
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="B26" s="43"/>
       <c r="C26" s="43" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D26" s="43"/>
       <c r="E26" s="43"/>
@@ -12521,7 +12480,7 @@
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="71"/>
       <c r="B31" s="82" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C31" s="43"/>
       <c r="D31" s="43"/>
@@ -12536,7 +12495,7 @@
       <c r="A32" s="71"/>
       <c r="B32" s="43"/>
       <c r="C32" s="82" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D32" s="43"/>
       <c r="E32" s="43"/>
@@ -12550,7 +12509,7 @@
       <c r="A33" s="71"/>
       <c r="B33" s="43"/>
       <c r="C33" s="82" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D33" s="43"/>
       <c r="E33" s="43"/>
@@ -12563,7 +12522,7 @@
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="71"/>
       <c r="B34" s="82" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C34" s="43"/>
       <c r="D34" s="43"/>
@@ -12894,7 +12853,7 @@
     <row r="61" spans="1:10" ht="12" customHeight="1">
       <c r="B61" s="78"/>
       <c r="C61" s="82" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D61" s="43"/>
       <c r="E61" s="43"/>
@@ -12931,7 +12890,7 @@
     <row r="64" spans="1:10" ht="12" customHeight="1">
       <c r="B64" s="78"/>
       <c r="C64" s="82" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D64" s="43"/>
       <c r="E64" s="43"/>
@@ -13454,10 +13413,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="126"/>
+      <c r="B1" s="125"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -13485,8 +13444,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="126"/>
-      <c r="B2" s="126"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
